--- a/visualizations - excel/MTF.xlsx
+++ b/visualizations - excel/MTF.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Corvinus\Documents\UCPH\Thesis\Visualizations\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Corvinus\Documents\UCPH\Thesis\blackbox-trading-CNN\visualizations - excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1906,7 +1906,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2005,13 +2005,6 @@
       <color theme="1"/>
       <name val="Roboto"/>
       <charset val="238"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="24"/>
@@ -2250,35 +2243,35 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2387,7 +2380,7 @@
                         <a:cs typeface="+mn-cs"/>
                       </a:defRPr>
                     </a:pPr>
-                    <a:fld id="{C945AF74-A5D8-4D8C-A366-AF21BFB51CD9}" type="CELLRANGE">
+                    <a:fld id="{CA40D22E-AFDF-45DC-8F16-7EE6D578A5FC}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr>
                         <a:defRPr/>
@@ -2467,7 +2460,7 @@
                         <a:cs typeface="+mn-cs"/>
                       </a:defRPr>
                     </a:pPr>
-                    <a:fld id="{02779D6A-9B1D-4A98-B5AD-40BEF9AA6853}" type="CELLRANGE">
+                    <a:fld id="{3A54C44B-ACEC-4912-BCB1-309476CDFF65}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr>
                         <a:defRPr/>
@@ -2538,7 +2531,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{239D9A69-B005-40AF-B98F-E9256C444E8B}" type="CELLRANGE">
+                    <a:fld id="{BB2B2194-76F9-4AA5-8AC6-0066801AACBD}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2590,7 +2583,7 @@
                         <a:cs typeface="+mn-cs"/>
                       </a:defRPr>
                     </a:pPr>
-                    <a:fld id="{F7C53CBA-0103-49D9-BF86-6B6800887C1F}" type="CELLRANGE">
+                    <a:fld id="{EAFD1918-B255-4F1F-AB50-18F68E9B34C1}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr>
                         <a:defRPr/>
@@ -2670,7 +2663,7 @@
                         <a:cs typeface="+mn-cs"/>
                       </a:defRPr>
                     </a:pPr>
-                    <a:fld id="{F8870C44-ABDD-498D-9DF0-61973467A3C6}" type="CELLRANGE">
+                    <a:fld id="{46657D33-CF1D-4A1D-9F2C-B09BFB557762}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr>
                         <a:defRPr/>
@@ -2757,7 +2750,7 @@
                         <a:cs typeface="+mn-cs"/>
                       </a:defRPr>
                     </a:pPr>
-                    <a:fld id="{FD0D11EF-E546-4E4E-BFE4-6C07FE51EF42}" type="CELLRANGE">
+                    <a:fld id="{424DA4D8-15F6-4195-BE89-8461FA37E0A6}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr>
                         <a:defRPr/>
@@ -2827,7 +2820,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3396D856-9698-41A7-B491-C6FD940CF1AB}" type="CELLRANGE">
+                    <a:fld id="{D557A517-331D-4167-BB3E-47E2D81A8DB6}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2866,7 +2859,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{65641939-FACA-44F1-AB35-4FE2C0B55317}" type="CELLRANGE">
+                    <a:fld id="{4CE67A82-00C8-4BC9-BBB9-1059C8F1F39D}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2912,7 +2905,7 @@
                         <a:cs typeface="+mn-cs"/>
                       </a:defRPr>
                     </a:pPr>
-                    <a:fld id="{5A63F02F-0C67-4823-B609-112EAACAB3CD}" type="CELLRANGE">
+                    <a:fld id="{2DCA52E8-DB10-414F-816F-DA95D3B60823}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr>
                         <a:defRPr/>
@@ -2990,7 +2983,7 @@
                         <a:cs typeface="+mn-cs"/>
                       </a:defRPr>
                     </a:pPr>
-                    <a:fld id="{E8BE5337-CF8C-4DFA-B361-4105D142FBDD}" type="CELLRANGE">
+                    <a:fld id="{C5A7C98D-4966-4034-A683-DFC2ADE118C7}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr>
                         <a:defRPr/>
@@ -3077,7 +3070,7 @@
                         <a:cs typeface="+mn-cs"/>
                       </a:defRPr>
                     </a:pPr>
-                    <a:fld id="{24343C01-7DF8-4387-A85D-15462E36A4F2}" type="CELLRANGE">
+                    <a:fld id="{342C0C24-4DEA-423D-BDA1-C7269441B7B7}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr>
                         <a:defRPr/>
@@ -3157,7 +3150,7 @@
                         <a:cs typeface="+mn-cs"/>
                       </a:defRPr>
                     </a:pPr>
-                    <a:fld id="{64C4C49A-C108-48EC-BE28-AFCE53C810BB}" type="CELLRANGE">
+                    <a:fld id="{75572046-C6A4-44A2-B908-0335F1ECCC7B}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr>
                         <a:defRPr/>
@@ -3238,7 +3231,7 @@
                         <a:cs typeface="+mn-cs"/>
                       </a:defRPr>
                     </a:pPr>
-                    <a:fld id="{C857B5E5-44EA-4AA6-9CF6-7457C9717A8F}" type="CELLRANGE">
+                    <a:fld id="{F3E79359-B2CA-4388-9169-BE8368C6D5BC}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr>
                         <a:defRPr/>
@@ -3322,7 +3315,7 @@
                         <a:cs typeface="+mn-cs"/>
                       </a:defRPr>
                     </a:pPr>
-                    <a:fld id="{F9F7257F-CCD5-46B7-A9AC-794BC66AA78C}" type="CELLRANGE">
+                    <a:fld id="{ECE4F365-BA0B-405E-8764-DA91707B0627}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr>
                         <a:defRPr/>
@@ -3408,7 +3401,7 @@
                         <a:cs typeface="+mn-cs"/>
                       </a:defRPr>
                     </a:pPr>
-                    <a:fld id="{AF75FE4E-D071-4D19-8015-EE6477E06C29}" type="CELLRANGE">
+                    <a:fld id="{13F18928-39A8-480E-AB10-EA1057E26A22}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr>
                         <a:defRPr/>
@@ -3475,7 +3468,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E95700F7-3B41-44D4-9A86-430D6C2F5BDA}" type="CELLRANGE">
+                    <a:fld id="{02A9694C-182A-453E-B6A0-9E1C5CED929E}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4575,7 +4568,7 @@
                         <a:cs typeface="Roboto" panose="02000000000000000000" pitchFamily="2" charset="0"/>
                       </a:defRPr>
                     </a:pPr>
-                    <a:fld id="{ACB00732-13E4-46EF-ADC3-167D22437CE9}" type="CELLRANGE">
+                    <a:fld id="{5C5DE5D6-E517-4C4F-9158-E90026C9907E}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr>
                         <a:defRPr sz="1600"/>
@@ -4655,7 +4648,7 @@
                         <a:cs typeface="Roboto" panose="02000000000000000000" pitchFamily="2" charset="0"/>
                       </a:defRPr>
                     </a:pPr>
-                    <a:fld id="{7290F262-1A92-4E25-908A-77B4AE8812C8}" type="CELLRANGE">
+                    <a:fld id="{9DED01BB-2150-409C-868A-E6471C20B68D}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr>
                         <a:defRPr sz="1600"/>
@@ -4726,7 +4719,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{01711CD6-2481-42D0-905F-38F31792C550}" type="CELLRANGE">
+                    <a:fld id="{9BCABC98-8C8A-4C76-993B-5F60187A71B1}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4778,7 +4771,7 @@
                         <a:cs typeface="Roboto" panose="02000000000000000000" pitchFamily="2" charset="0"/>
                       </a:defRPr>
                     </a:pPr>
-                    <a:fld id="{8A09CEAD-6D89-4B4D-8942-E9F7E0581080}" type="CELLRANGE">
+                    <a:fld id="{BBD6BCF6-395A-498E-8F0B-545098EA9F60}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr>
                         <a:defRPr sz="1600"/>
@@ -4858,7 +4851,7 @@
                         <a:cs typeface="Roboto" panose="02000000000000000000" pitchFamily="2" charset="0"/>
                       </a:defRPr>
                     </a:pPr>
-                    <a:fld id="{B13C4C49-A24D-4523-A2CE-F83E7A20587C}" type="CELLRANGE">
+                    <a:fld id="{B1ECF7D2-1AAC-4420-9234-3A6DA62F2E61}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr>
                         <a:defRPr sz="1600"/>
@@ -4945,7 +4938,7 @@
                         <a:cs typeface="Roboto" panose="02000000000000000000" pitchFamily="2" charset="0"/>
                       </a:defRPr>
                     </a:pPr>
-                    <a:fld id="{7D808398-CF3E-44A6-AA9A-1E3902C25DC6}" type="CELLRANGE">
+                    <a:fld id="{9836C96F-ED77-412E-ABAB-B90F7875BFE6}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr>
                         <a:defRPr sz="1600"/>
@@ -5015,7 +5008,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{95312589-E1EB-4013-A7EE-FD51B825BA68}" type="CELLRANGE">
+                    <a:fld id="{A5B4ECE9-CF71-48D1-8A32-F2694F8F89E7}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5054,7 +5047,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{465C0BAD-21BB-4C53-BBE9-D582A54634A7}" type="CELLRANGE">
+                    <a:fld id="{09FB6981-DA01-42C9-8838-3D981AFFF243}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5100,7 +5093,7 @@
                         <a:cs typeface="Roboto" panose="02000000000000000000" pitchFamily="2" charset="0"/>
                       </a:defRPr>
                     </a:pPr>
-                    <a:fld id="{856A40AB-C544-49C0-82D8-68E381233F25}" type="CELLRANGE">
+                    <a:fld id="{36AC781E-7ECA-4BC4-A0BC-9A2EF6A9D120}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr>
                         <a:defRPr sz="1600"/>
@@ -5178,7 +5171,7 @@
                         <a:cs typeface="Roboto" panose="02000000000000000000" pitchFamily="2" charset="0"/>
                       </a:defRPr>
                     </a:pPr>
-                    <a:fld id="{3B410F7A-C2FD-4126-983F-4952A1EFF6B9}" type="CELLRANGE">
+                    <a:fld id="{720A2987-4156-4F82-B0D3-5F83C73D33BC}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr>
                         <a:defRPr sz="1600"/>
@@ -5265,7 +5258,7 @@
                         <a:cs typeface="Roboto" panose="02000000000000000000" pitchFamily="2" charset="0"/>
                       </a:defRPr>
                     </a:pPr>
-                    <a:fld id="{DDF56B16-8E3B-4F59-BC7D-A14F9C89C9BE}" type="CELLRANGE">
+                    <a:fld id="{E7E7217B-0759-4BA7-88B6-355372C88923}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr>
                         <a:defRPr sz="1600"/>
@@ -5345,7 +5338,7 @@
                         <a:cs typeface="Roboto" panose="02000000000000000000" pitchFamily="2" charset="0"/>
                       </a:defRPr>
                     </a:pPr>
-                    <a:fld id="{5189ED88-7108-4FD1-A2EB-1E779E4C6462}" type="CELLRANGE">
+                    <a:fld id="{2B6D34E6-3D55-42F8-AB26-B6B0B658773E}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr>
                         <a:defRPr sz="1600"/>
@@ -5426,7 +5419,7 @@
                         <a:cs typeface="Roboto" panose="02000000000000000000" pitchFamily="2" charset="0"/>
                       </a:defRPr>
                     </a:pPr>
-                    <a:fld id="{1C17F6C0-3DB2-4CAC-A003-BFB8E1E0A954}" type="CELLRANGE">
+                    <a:fld id="{FCCF0EAD-D0D8-4BC6-BE9C-75CC2582F30E}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr>
                         <a:defRPr sz="1600"/>
@@ -5510,7 +5503,7 @@
                         <a:cs typeface="Roboto" panose="02000000000000000000" pitchFamily="2" charset="0"/>
                       </a:defRPr>
                     </a:pPr>
-                    <a:fld id="{79197BAE-A3B4-4753-9B79-70FD454BA0BA}" type="CELLRANGE">
+                    <a:fld id="{E96DDEC4-6B02-41EC-AC0F-301ABF6177DF}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr>
                         <a:defRPr sz="1600"/>
@@ -5596,7 +5589,7 @@
                         <a:cs typeface="Roboto" panose="02000000000000000000" pitchFamily="2" charset="0"/>
                       </a:defRPr>
                     </a:pPr>
-                    <a:fld id="{58D8210B-0C9B-4D13-8BA8-B3CEA8BAF216}" type="CELLRANGE">
+                    <a:fld id="{6A16E676-93B2-47F6-B17E-53BB4E736EE2}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr>
                         <a:defRPr sz="1600"/>
@@ -5669,7 +5662,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{60FE5BFB-4BF8-4E8C-910D-F5A3D6558AB1}" type="CELLRANGE">
+                    <a:fld id="{6A5D4F9D-DBDE-41D3-81EA-195EA66022F0}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -11846,7 +11839,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="MTF!$AG$67:$AL$72" spid="_x0000_s3162"/>
+                  <a14:cameraTool cellRange="MTF!$AG$67:$AL$72" spid="_x0000_s3165"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -11991,7 +11984,7 @@
                 <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
                 <a:extLst>
                   <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                    <a14:cameraTool cellRange="MTF!$AM$67:$AR$72" spid="_x0000_s3163"/>
+                    <a14:cameraTool cellRange="MTF!$AM$67:$AR$72" spid="_x0000_s3166"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPicPr>
@@ -12219,7 +12212,7 @@
                 <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
                 <a:extLst>
                   <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                    <a14:cameraTool cellRange="MTF!$G$38:$Z$57" spid="_x0000_s3164"/>
+                    <a14:cameraTool cellRange="MTF!$G$38:$Z$57" spid="_x0000_s3167"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPicPr>
@@ -14591,52 +14584,52 @@
     <row r="38" spans="7:44" ht="63" x14ac:dyDescent="1.35">
       <c r="G38" s="11"/>
       <c r="H38" s="11"/>
-      <c r="I38" s="25" t="s">
+      <c r="I38" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="J38" s="25" t="s">
+      <c r="J38" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="K38" s="25" t="s">
+      <c r="K38" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="L38" s="25" t="s">
+      <c r="L38" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="M38" s="25" t="s">
+      <c r="M38" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="N38" s="25" t="s">
+      <c r="N38" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="O38" s="25" t="s">
+      <c r="O38" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="P38" s="25" t="s">
+      <c r="P38" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="Q38" s="25" t="s">
+      <c r="Q38" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="R38" s="25" t="s">
+      <c r="R38" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="S38" s="25" t="s">
+      <c r="S38" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="T38" s="25" t="s">
+      <c r="T38" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="U38" s="25" t="s">
+      <c r="U38" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="V38" s="25" t="s">
+      <c r="V38" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="W38" s="25" t="s">
+      <c r="W38" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="X38" s="25" t="s">
+      <c r="X38" s="22" t="s">
         <v>101</v>
       </c>
       <c r="Y38" s="11"/>
@@ -14646,52 +14639,52 @@
     <row r="39" spans="7:44" s="19" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="1.35">
       <c r="G39" s="18"/>
       <c r="H39" s="20"/>
-      <c r="I39" s="25" t="s">
+      <c r="I39" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="J39" s="25" t="s">
+      <c r="J39" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="K39" s="25" t="s">
+      <c r="K39" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="L39" s="25" t="s">
+      <c r="L39" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="M39" s="25" t="s">
+      <c r="M39" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="N39" s="25" t="s">
+      <c r="N39" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="O39" s="25" t="s">
+      <c r="O39" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="P39" s="25" t="s">
+      <c r="P39" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="Q39" s="25" t="s">
+      <c r="Q39" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="R39" s="25" t="s">
+      <c r="R39" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="S39" s="25" t="s">
+      <c r="S39" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="T39" s="25" t="s">
+      <c r="T39" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="U39" s="25" t="s">
+      <c r="U39" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="V39" s="25" t="s">
+      <c r="V39" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="W39" s="25" t="s">
+      <c r="W39" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="X39" s="25" t="s">
+      <c r="X39" s="22" t="s">
         <v>104</v>
       </c>
       <c r="Y39" s="18"/>
@@ -14701,389 +14694,389 @@
       <c r="AR39" s="18"/>
     </row>
     <row r="40" spans="7:44" ht="84" customHeight="1" x14ac:dyDescent="1.5">
-      <c r="G40" s="25" t="s">
+      <c r="G40" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="H40" s="25" t="s">
+      <c r="H40" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="I40" s="38">
+      <c r="I40" s="26">
         <f t="shared" ref="I40:X40" si="13">I21</f>
         <v>0.25</v>
       </c>
-      <c r="J40" s="38">
+      <c r="J40" s="26">
         <f t="shared" si="13"/>
         <v>0.75</v>
       </c>
-      <c r="K40" s="38">
+      <c r="K40" s="26">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="L40" s="38">
+      <c r="L40" s="26">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="M40" s="38">
+      <c r="M40" s="26">
         <f t="shared" si="13"/>
         <v>0.25</v>
       </c>
-      <c r="N40" s="38">
+      <c r="N40" s="26">
         <f t="shared" si="13"/>
         <v>0.75</v>
       </c>
-      <c r="O40" s="38">
+      <c r="O40" s="26">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="P40" s="38">
+      <c r="P40" s="26">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="Q40" s="38">
+      <c r="Q40" s="26">
         <f t="shared" si="13"/>
         <v>0.75</v>
       </c>
-      <c r="R40" s="38">
+      <c r="R40" s="26">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="S40" s="38">
+      <c r="S40" s="26">
         <f t="shared" si="13"/>
         <v>0.25</v>
       </c>
-      <c r="T40" s="38">
+      <c r="T40" s="26">
         <f t="shared" si="13"/>
         <v>0.25</v>
       </c>
-      <c r="U40" s="38">
+      <c r="U40" s="26">
         <f t="shared" si="13"/>
         <v>0.75</v>
       </c>
-      <c r="V40" s="38">
+      <c r="V40" s="26">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="W40" s="38">
+      <c r="W40" s="26">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="X40" s="38">
+      <c r="X40" s="26">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Y40" s="11"/>
       <c r="Z40" s="11"/>
-      <c r="AA40" s="24" t="s">
+      <c r="AA40" s="21" t="s">
         <v>82</v>
       </c>
       <c r="AC40" s="15"/>
       <c r="AO40" s="11"/>
     </row>
     <row r="41" spans="7:44" ht="84" customHeight="1" x14ac:dyDescent="1.5">
-      <c r="G41" s="25" t="s">
+      <c r="G41" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="H41" s="25" t="s">
+      <c r="H41" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="I41" s="38">
+      <c r="I41" s="26">
         <f t="shared" ref="I41:X41" si="14">I22</f>
         <v>0</v>
       </c>
-      <c r="J41" s="38">
+      <c r="J41" s="26">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="K41" s="38">
+      <c r="K41" s="26">
         <f t="shared" si="14"/>
         <v>0.5</v>
       </c>
-      <c r="L41" s="38">
+      <c r="L41" s="26">
         <f t="shared" si="14"/>
         <v>0.5</v>
       </c>
-      <c r="M41" s="38">
+      <c r="M41" s="26">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="N41" s="38">
+      <c r="N41" s="26">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="O41" s="38">
+      <c r="O41" s="26">
         <f t="shared" si="14"/>
         <v>0.5</v>
       </c>
-      <c r="P41" s="38">
+      <c r="P41" s="26">
         <f t="shared" si="14"/>
         <v>0.5</v>
       </c>
-      <c r="Q41" s="38">
+      <c r="Q41" s="26">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="R41" s="38">
+      <c r="R41" s="26">
         <f t="shared" si="14"/>
         <v>0.5</v>
       </c>
-      <c r="S41" s="38">
+      <c r="S41" s="26">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="T41" s="38">
+      <c r="T41" s="26">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="U41" s="38">
+      <c r="U41" s="26">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="V41" s="38">
+      <c r="V41" s="26">
         <f t="shared" si="14"/>
         <v>0.5</v>
       </c>
-      <c r="W41" s="38">
+      <c r="W41" s="26">
         <f t="shared" si="14"/>
         <v>0.5</v>
       </c>
-      <c r="X41" s="38">
+      <c r="X41" s="26">
         <f t="shared" si="14"/>
         <v>0.5</v>
       </c>
       <c r="Y41" s="11"/>
       <c r="Z41" s="11"/>
-      <c r="AA41" s="24" t="s">
+      <c r="AA41" s="21" t="s">
         <v>83</v>
       </c>
       <c r="AC41" s="15"/>
       <c r="AO41" s="11"/>
     </row>
     <row r="42" spans="7:44" ht="84" customHeight="1" x14ac:dyDescent="1.5">
-      <c r="G42" s="25" t="s">
+      <c r="G42" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="H42" s="25" t="s">
+      <c r="H42" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="I42" s="38">
+      <c r="I42" s="26">
         <f t="shared" ref="I42:X42" si="15">I23</f>
         <v>0</v>
       </c>
-      <c r="J42" s="38">
+      <c r="J42" s="26">
         <f t="shared" si="15"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="K42" s="38">
+      <c r="K42" s="26">
         <f t="shared" si="15"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="L42" s="38">
+      <c r="L42" s="26">
         <f t="shared" si="15"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="M42" s="38">
+      <c r="M42" s="26">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="N42" s="38">
+      <c r="N42" s="26">
         <f t="shared" si="15"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="O42" s="38">
+      <c r="O42" s="26">
         <f t="shared" si="15"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="P42" s="38">
+      <c r="P42" s="26">
         <f t="shared" si="15"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="Q42" s="38">
+      <c r="Q42" s="26">
         <f t="shared" si="15"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="R42" s="38">
+      <c r="R42" s="26">
         <f t="shared" si="15"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="S42" s="38">
+      <c r="S42" s="26">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="T42" s="38">
+      <c r="T42" s="26">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="U42" s="38">
+      <c r="U42" s="26">
         <f t="shared" si="15"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="V42" s="38">
+      <c r="V42" s="26">
         <f t="shared" si="15"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="W42" s="38">
+      <c r="W42" s="26">
         <f t="shared" si="15"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="X42" s="38">
+      <c r="X42" s="26">
         <f t="shared" si="15"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="Y42" s="11"/>
       <c r="Z42" s="11"/>
-      <c r="AA42" s="24" t="s">
+      <c r="AA42" s="21" t="s">
         <v>84</v>
       </c>
       <c r="AC42" s="15"/>
       <c r="AO42" s="11"/>
     </row>
     <row r="43" spans="7:44" ht="84" customHeight="1" x14ac:dyDescent="1.5">
-      <c r="G43" s="25" t="s">
+      <c r="G43" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="H43" s="25" t="s">
+      <c r="H43" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="I43" s="38">
+      <c r="I43" s="26">
         <f t="shared" ref="I43:X43" si="16">I24</f>
         <v>0.5</v>
       </c>
-      <c r="J43" s="38">
+      <c r="J43" s="26">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="K43" s="38">
+      <c r="K43" s="26">
         <f t="shared" si="16"/>
         <v>0.25</v>
       </c>
-      <c r="L43" s="38">
+      <c r="L43" s="26">
         <f t="shared" si="16"/>
         <v>0.25</v>
       </c>
-      <c r="M43" s="38">
+      <c r="M43" s="26">
         <f t="shared" si="16"/>
         <v>0.5</v>
       </c>
-      <c r="N43" s="38">
+      <c r="N43" s="26">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="O43" s="38">
+      <c r="O43" s="26">
         <f t="shared" si="16"/>
         <v>0.25</v>
       </c>
-      <c r="P43" s="38">
+      <c r="P43" s="26">
         <f t="shared" si="16"/>
         <v>0.25</v>
       </c>
-      <c r="Q43" s="38">
+      <c r="Q43" s="26">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="R43" s="38">
+      <c r="R43" s="26">
         <f t="shared" si="16"/>
         <v>0.25</v>
       </c>
-      <c r="S43" s="38">
+      <c r="S43" s="26">
         <f t="shared" si="16"/>
         <v>0.5</v>
       </c>
-      <c r="T43" s="38">
+      <c r="T43" s="26">
         <f t="shared" si="16"/>
         <v>0.5</v>
       </c>
-      <c r="U43" s="38">
+      <c r="U43" s="26">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="V43" s="38">
+      <c r="V43" s="26">
         <f t="shared" si="16"/>
         <v>0.25</v>
       </c>
-      <c r="W43" s="38">
+      <c r="W43" s="26">
         <f t="shared" si="16"/>
         <v>0.25</v>
       </c>
-      <c r="X43" s="38">
+      <c r="X43" s="26">
         <f t="shared" si="16"/>
         <v>0.25</v>
       </c>
       <c r="Y43" s="11"/>
       <c r="Z43" s="11"/>
-      <c r="AA43" s="24" t="s">
+      <c r="AA43" s="21" t="s">
         <v>85</v>
       </c>
       <c r="AC43" s="15"/>
       <c r="AO43" s="11"/>
     </row>
     <row r="44" spans="7:44" ht="84" customHeight="1" x14ac:dyDescent="1.35">
-      <c r="G44" s="25" t="s">
+      <c r="G44" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="H44" s="25" t="s">
+      <c r="H44" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="I44" s="38">
+      <c r="I44" s="26">
         <f t="shared" ref="I44:X44" si="17">I25</f>
         <v>0.25</v>
       </c>
-      <c r="J44" s="38">
+      <c r="J44" s="26">
         <f t="shared" si="17"/>
         <v>0.75</v>
       </c>
-      <c r="K44" s="38">
+      <c r="K44" s="26">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="L44" s="38">
+      <c r="L44" s="26">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="M44" s="38">
+      <c r="M44" s="26">
         <f t="shared" si="17"/>
         <v>0.25</v>
       </c>
-      <c r="N44" s="38">
+      <c r="N44" s="26">
         <f t="shared" si="17"/>
         <v>0.75</v>
       </c>
-      <c r="O44" s="38">
+      <c r="O44" s="26">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="P44" s="38">
+      <c r="P44" s="26">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="Q44" s="38">
+      <c r="Q44" s="26">
         <f t="shared" si="17"/>
         <v>0.75</v>
       </c>
-      <c r="R44" s="38">
+      <c r="R44" s="26">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="S44" s="38">
+      <c r="S44" s="26">
         <f t="shared" si="17"/>
         <v>0.25</v>
       </c>
-      <c r="T44" s="38">
+      <c r="T44" s="26">
         <f t="shared" si="17"/>
         <v>0.25</v>
       </c>
-      <c r="U44" s="38">
+      <c r="U44" s="26">
         <f t="shared" si="17"/>
         <v>0.75</v>
       </c>
-      <c r="V44" s="38">
+      <c r="V44" s="26">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="W44" s="38">
+      <c r="W44" s="26">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="X44" s="38">
+      <c r="X44" s="26">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
@@ -15104,73 +15097,73 @@
       <c r="AO44" s="11"/>
     </row>
     <row r="45" spans="7:44" ht="84" customHeight="1" x14ac:dyDescent="1.35">
-      <c r="G45" s="25" t="s">
+      <c r="G45" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="H45" s="25" t="s">
+      <c r="H45" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="I45" s="38">
+      <c r="I45" s="26">
         <f t="shared" ref="I45:X45" si="18">I26</f>
         <v>0</v>
       </c>
-      <c r="J45" s="38">
+      <c r="J45" s="26">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="K45" s="38">
+      <c r="K45" s="26">
         <f t="shared" si="18"/>
         <v>0.5</v>
       </c>
-      <c r="L45" s="38">
+      <c r="L45" s="26">
         <f t="shared" si="18"/>
         <v>0.5</v>
       </c>
-      <c r="M45" s="38">
+      <c r="M45" s="26">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="N45" s="38">
+      <c r="N45" s="26">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="O45" s="38">
+      <c r="O45" s="26">
         <f t="shared" si="18"/>
         <v>0.5</v>
       </c>
-      <c r="P45" s="38">
+      <c r="P45" s="26">
         <f t="shared" si="18"/>
         <v>0.5</v>
       </c>
-      <c r="Q45" s="38">
+      <c r="Q45" s="26">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="R45" s="38">
+      <c r="R45" s="26">
         <f t="shared" si="18"/>
         <v>0.5</v>
       </c>
-      <c r="S45" s="38">
+      <c r="S45" s="26">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="T45" s="38">
+      <c r="T45" s="26">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="U45" s="38">
+      <c r="U45" s="26">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="V45" s="38">
+      <c r="V45" s="26">
         <f t="shared" si="18"/>
         <v>0.5</v>
       </c>
-      <c r="W45" s="38">
+      <c r="W45" s="26">
         <f t="shared" si="18"/>
         <v>0.5</v>
       </c>
-      <c r="X45" s="38">
+      <c r="X45" s="26">
         <f t="shared" si="18"/>
         <v>0.5</v>
       </c>
@@ -15179,73 +15172,73 @@
       <c r="AC45" s="16"/>
     </row>
     <row r="46" spans="7:44" ht="84" customHeight="1" x14ac:dyDescent="1.35">
-      <c r="G46" s="25" t="s">
+      <c r="G46" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="H46" s="25" t="s">
+      <c r="H46" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="I46" s="38">
+      <c r="I46" s="26">
         <f t="shared" ref="I46:X46" si="19">I27</f>
         <v>0</v>
       </c>
-      <c r="J46" s="38">
+      <c r="J46" s="26">
         <f t="shared" si="19"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="K46" s="38">
+      <c r="K46" s="26">
         <f t="shared" si="19"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="L46" s="38">
+      <c r="L46" s="26">
         <f t="shared" si="19"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="M46" s="38">
+      <c r="M46" s="26">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="N46" s="38">
+      <c r="N46" s="26">
         <f t="shared" si="19"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="O46" s="38">
+      <c r="O46" s="26">
         <f t="shared" si="19"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="P46" s="38">
+      <c r="P46" s="26">
         <f t="shared" si="19"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="Q46" s="38">
+      <c r="Q46" s="26">
         <f t="shared" si="19"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="R46" s="38">
+      <c r="R46" s="26">
         <f t="shared" si="19"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="S46" s="38">
+      <c r="S46" s="26">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="T46" s="38">
+      <c r="T46" s="26">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="U46" s="38">
+      <c r="U46" s="26">
         <f t="shared" si="19"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="V46" s="38">
+      <c r="V46" s="26">
         <f t="shared" si="19"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="W46" s="38">
+      <c r="W46" s="26">
         <f t="shared" si="19"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="X46" s="38">
+      <c r="X46" s="26">
         <f t="shared" si="19"/>
         <v>0.33333333333333331</v>
       </c>
@@ -15253,73 +15246,73 @@
       <c r="Z46" s="11"/>
     </row>
     <row r="47" spans="7:44" ht="84" customHeight="1" x14ac:dyDescent="1.35">
-      <c r="G47" s="25" t="s">
+      <c r="G47" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="H47" s="25" t="s">
+      <c r="H47" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="I47" s="38">
+      <c r="I47" s="26">
         <f t="shared" ref="I47:X47" si="20">I28</f>
         <v>0</v>
       </c>
-      <c r="J47" s="38">
+      <c r="J47" s="26">
         <f t="shared" si="20"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="K47" s="38">
+      <c r="K47" s="26">
         <f t="shared" si="20"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="L47" s="38">
+      <c r="L47" s="26">
         <f t="shared" si="20"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="M47" s="38">
+      <c r="M47" s="26">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="N47" s="38">
+      <c r="N47" s="26">
         <f t="shared" si="20"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="O47" s="38">
+      <c r="O47" s="26">
         <f t="shared" si="20"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="P47" s="38">
+      <c r="P47" s="26">
         <f t="shared" si="20"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="Q47" s="38">
+      <c r="Q47" s="26">
         <f t="shared" si="20"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="R47" s="38">
+      <c r="R47" s="26">
         <f t="shared" si="20"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="S47" s="38">
+      <c r="S47" s="26">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="T47" s="38">
+      <c r="T47" s="26">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="U47" s="38">
+      <c r="U47" s="26">
         <f t="shared" si="20"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="V47" s="38">
+      <c r="V47" s="26">
         <f t="shared" si="20"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="W47" s="38">
+      <c r="W47" s="26">
         <f t="shared" si="20"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="X47" s="38">
+      <c r="X47" s="26">
         <f t="shared" si="20"/>
         <v>0.33333333333333331</v>
       </c>
@@ -15327,73 +15320,73 @@
       <c r="Z47" s="11"/>
     </row>
     <row r="48" spans="7:44" ht="84" customHeight="1" x14ac:dyDescent="1.35">
-      <c r="G48" s="25" t="s">
+      <c r="G48" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="H48" s="25" t="s">
+      <c r="H48" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="I48" s="38">
+      <c r="I48" s="26">
         <f t="shared" ref="I48:X48" si="21">I29</f>
         <v>0</v>
       </c>
-      <c r="J48" s="38">
+      <c r="J48" s="26">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="K48" s="38">
+      <c r="K48" s="26">
         <f t="shared" si="21"/>
         <v>0.5</v>
       </c>
-      <c r="L48" s="38">
+      <c r="L48" s="26">
         <f t="shared" si="21"/>
         <v>0.5</v>
       </c>
-      <c r="M48" s="38">
+      <c r="M48" s="26">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="N48" s="38">
+      <c r="N48" s="26">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="O48" s="38">
+      <c r="O48" s="26">
         <f t="shared" si="21"/>
         <v>0.5</v>
       </c>
-      <c r="P48" s="38">
+      <c r="P48" s="26">
         <f t="shared" si="21"/>
         <v>0.5</v>
       </c>
-      <c r="Q48" s="38">
+      <c r="Q48" s="26">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="R48" s="38">
+      <c r="R48" s="26">
         <f t="shared" si="21"/>
         <v>0.5</v>
       </c>
-      <c r="S48" s="38">
+      <c r="S48" s="26">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="T48" s="38">
+      <c r="T48" s="26">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="U48" s="38">
+      <c r="U48" s="26">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="V48" s="38">
+      <c r="V48" s="26">
         <f t="shared" si="21"/>
         <v>0.5</v>
       </c>
-      <c r="W48" s="38">
+      <c r="W48" s="26">
         <f t="shared" si="21"/>
         <v>0.5</v>
       </c>
-      <c r="X48" s="38">
+      <c r="X48" s="26">
         <f t="shared" si="21"/>
         <v>0.5</v>
       </c>
@@ -15401,73 +15394,73 @@
       <c r="Z48" s="11"/>
     </row>
     <row r="49" spans="7:26" ht="84" customHeight="1" x14ac:dyDescent="1.35">
-      <c r="G49" s="25" t="s">
+      <c r="G49" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="H49" s="25" t="s">
+      <c r="H49" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="I49" s="38">
+      <c r="I49" s="26">
         <f t="shared" ref="I49:X49" si="22">I30</f>
         <v>0.5</v>
       </c>
-      <c r="J49" s="38">
+      <c r="J49" s="26">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="K49" s="38">
+      <c r="K49" s="26">
         <f t="shared" si="22"/>
         <v>0.25</v>
       </c>
-      <c r="L49" s="38">
+      <c r="L49" s="26">
         <f t="shared" si="22"/>
         <v>0.25</v>
       </c>
-      <c r="M49" s="38">
+      <c r="M49" s="26">
         <f t="shared" si="22"/>
         <v>0.5</v>
       </c>
-      <c r="N49" s="38">
+      <c r="N49" s="26">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="O49" s="38">
+      <c r="O49" s="26">
         <f t="shared" si="22"/>
         <v>0.25</v>
       </c>
-      <c r="P49" s="38">
+      <c r="P49" s="26">
         <f t="shared" si="22"/>
         <v>0.25</v>
       </c>
-      <c r="Q49" s="38">
+      <c r="Q49" s="26">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="R49" s="38">
+      <c r="R49" s="26">
         <f t="shared" si="22"/>
         <v>0.25</v>
       </c>
-      <c r="S49" s="38">
+      <c r="S49" s="26">
         <f t="shared" si="22"/>
         <v>0.5</v>
       </c>
-      <c r="T49" s="38">
+      <c r="T49" s="26">
         <f t="shared" si="22"/>
         <v>0.5</v>
       </c>
-      <c r="U49" s="38">
+      <c r="U49" s="26">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="V49" s="38">
+      <c r="V49" s="26">
         <f t="shared" si="22"/>
         <v>0.25</v>
       </c>
-      <c r="W49" s="38">
+      <c r="W49" s="26">
         <f t="shared" si="22"/>
         <v>0.25</v>
       </c>
-      <c r="X49" s="38">
+      <c r="X49" s="26">
         <f t="shared" si="22"/>
         <v>0.25</v>
       </c>
@@ -15475,73 +15468,73 @@
       <c r="Z49" s="11"/>
     </row>
     <row r="50" spans="7:26" ht="84" customHeight="1" x14ac:dyDescent="1.35">
-      <c r="G50" s="25" t="s">
+      <c r="G50" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="H50" s="25" t="s">
+      <c r="H50" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="I50" s="38">
+      <c r="I50" s="26">
         <f t="shared" ref="I50:X50" si="23">I31</f>
         <v>0.25</v>
       </c>
-      <c r="J50" s="38">
+      <c r="J50" s="26">
         <f t="shared" si="23"/>
         <v>0.75</v>
       </c>
-      <c r="K50" s="38">
+      <c r="K50" s="26">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="L50" s="38">
+      <c r="L50" s="26">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="M50" s="38">
+      <c r="M50" s="26">
         <f t="shared" si="23"/>
         <v>0.25</v>
       </c>
-      <c r="N50" s="38">
+      <c r="N50" s="26">
         <f t="shared" si="23"/>
         <v>0.75</v>
       </c>
-      <c r="O50" s="38">
+      <c r="O50" s="26">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="P50" s="38">
+      <c r="P50" s="26">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="Q50" s="38">
+      <c r="Q50" s="26">
         <f t="shared" si="23"/>
         <v>0.75</v>
       </c>
-      <c r="R50" s="38">
+      <c r="R50" s="26">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="S50" s="38">
+      <c r="S50" s="26">
         <f t="shared" si="23"/>
         <v>0.25</v>
       </c>
-      <c r="T50" s="38">
+      <c r="T50" s="26">
         <f t="shared" si="23"/>
         <v>0.25</v>
       </c>
-      <c r="U50" s="38">
+      <c r="U50" s="26">
         <f t="shared" si="23"/>
         <v>0.75</v>
       </c>
-      <c r="V50" s="38">
+      <c r="V50" s="26">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="W50" s="38">
+      <c r="W50" s="26">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="X50" s="38">
+      <c r="X50" s="26">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
@@ -15549,73 +15542,73 @@
       <c r="Z50" s="11"/>
     </row>
     <row r="51" spans="7:26" ht="84" customHeight="1" x14ac:dyDescent="1.35">
-      <c r="G51" s="25" t="s">
+      <c r="G51" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="H51" s="25" t="s">
+      <c r="H51" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="I51" s="38">
+      <c r="I51" s="26">
         <f t="shared" ref="I51:X51" si="24">I32</f>
         <v>0.25</v>
       </c>
-      <c r="J51" s="38">
+      <c r="J51" s="26">
         <f t="shared" si="24"/>
         <v>0.75</v>
       </c>
-      <c r="K51" s="38">
+      <c r="K51" s="26">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="L51" s="38">
+      <c r="L51" s="26">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="M51" s="38">
+      <c r="M51" s="26">
         <f t="shared" si="24"/>
         <v>0.25</v>
       </c>
-      <c r="N51" s="38">
+      <c r="N51" s="26">
         <f t="shared" si="24"/>
         <v>0.75</v>
       </c>
-      <c r="O51" s="38">
+      <c r="O51" s="26">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="P51" s="38">
+      <c r="P51" s="26">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="Q51" s="38">
+      <c r="Q51" s="26">
         <f t="shared" si="24"/>
         <v>0.75</v>
       </c>
-      <c r="R51" s="38">
+      <c r="R51" s="26">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="S51" s="38">
+      <c r="S51" s="26">
         <f t="shared" si="24"/>
         <v>0.25</v>
       </c>
-      <c r="T51" s="38">
+      <c r="T51" s="26">
         <f t="shared" si="24"/>
         <v>0.25</v>
       </c>
-      <c r="U51" s="38">
+      <c r="U51" s="26">
         <f t="shared" si="24"/>
         <v>0.75</v>
       </c>
-      <c r="V51" s="38">
+      <c r="V51" s="26">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="W51" s="38">
+      <c r="W51" s="26">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="X51" s="38">
+      <c r="X51" s="26">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
@@ -15623,73 +15616,73 @@
       <c r="Z51" s="11"/>
     </row>
     <row r="52" spans="7:26" ht="84" customHeight="1" x14ac:dyDescent="1.35">
-      <c r="G52" s="25" t="s">
+      <c r="G52" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="H52" s="25" t="s">
+      <c r="H52" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="I52" s="38">
+      <c r="I52" s="26">
         <f t="shared" ref="I52:X52" si="25">I33</f>
         <v>0</v>
       </c>
-      <c r="J52" s="38">
+      <c r="J52" s="26">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="K52" s="38">
+      <c r="K52" s="26">
         <f t="shared" si="25"/>
         <v>0.5</v>
       </c>
-      <c r="L52" s="38">
+      <c r="L52" s="26">
         <f t="shared" si="25"/>
         <v>0.5</v>
       </c>
-      <c r="M52" s="38">
+      <c r="M52" s="26">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="N52" s="38">
+      <c r="N52" s="26">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="O52" s="38">
+      <c r="O52" s="26">
         <f t="shared" si="25"/>
         <v>0.5</v>
       </c>
-      <c r="P52" s="38">
+      <c r="P52" s="26">
         <f t="shared" si="25"/>
         <v>0.5</v>
       </c>
-      <c r="Q52" s="38">
+      <c r="Q52" s="26">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="R52" s="38">
+      <c r="R52" s="26">
         <f t="shared" si="25"/>
         <v>0.5</v>
       </c>
-      <c r="S52" s="38">
+      <c r="S52" s="26">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="T52" s="38">
+      <c r="T52" s="26">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="U52" s="38">
+      <c r="U52" s="26">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="V52" s="38">
+      <c r="V52" s="26">
         <f t="shared" si="25"/>
         <v>0.5</v>
       </c>
-      <c r="W52" s="38">
+      <c r="W52" s="26">
         <f t="shared" si="25"/>
         <v>0.5</v>
       </c>
-      <c r="X52" s="38">
+      <c r="X52" s="26">
         <f t="shared" si="25"/>
         <v>0.5</v>
       </c>
@@ -15697,73 +15690,73 @@
       <c r="Z52" s="11"/>
     </row>
     <row r="53" spans="7:26" ht="84" customHeight="1" x14ac:dyDescent="1.35">
-      <c r="G53" s="25" t="s">
+      <c r="G53" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="H53" s="25" t="s">
+      <c r="H53" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="I53" s="38">
+      <c r="I53" s="26">
         <f t="shared" ref="I53:X53" si="26">I34</f>
         <v>0.5</v>
       </c>
-      <c r="J53" s="38">
+      <c r="J53" s="26">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="K53" s="38">
+      <c r="K53" s="26">
         <f t="shared" si="26"/>
         <v>0.25</v>
       </c>
-      <c r="L53" s="38">
+      <c r="L53" s="26">
         <f t="shared" si="26"/>
         <v>0.25</v>
       </c>
-      <c r="M53" s="38">
+      <c r="M53" s="26">
         <f t="shared" si="26"/>
         <v>0.5</v>
       </c>
-      <c r="N53" s="38">
+      <c r="N53" s="26">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="O53" s="38">
+      <c r="O53" s="26">
         <f t="shared" si="26"/>
         <v>0.25</v>
       </c>
-      <c r="P53" s="38">
+      <c r="P53" s="26">
         <f t="shared" si="26"/>
         <v>0.25</v>
       </c>
-      <c r="Q53" s="38">
+      <c r="Q53" s="26">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="R53" s="38">
+      <c r="R53" s="26">
         <f t="shared" si="26"/>
         <v>0.25</v>
       </c>
-      <c r="S53" s="38">
+      <c r="S53" s="26">
         <f t="shared" si="26"/>
         <v>0.5</v>
       </c>
-      <c r="T53" s="38">
+      <c r="T53" s="26">
         <f t="shared" si="26"/>
         <v>0.5</v>
       </c>
-      <c r="U53" s="38">
+      <c r="U53" s="26">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="V53" s="38">
+      <c r="V53" s="26">
         <f t="shared" si="26"/>
         <v>0.25</v>
       </c>
-      <c r="W53" s="38">
+      <c r="W53" s="26">
         <f t="shared" si="26"/>
         <v>0.25</v>
       </c>
-      <c r="X53" s="38">
+      <c r="X53" s="26">
         <f t="shared" si="26"/>
         <v>0.25</v>
       </c>
@@ -15771,73 +15764,73 @@
       <c r="Z53" s="11"/>
     </row>
     <row r="54" spans="7:26" ht="84" customHeight="1" x14ac:dyDescent="1.35">
-      <c r="G54" s="25" t="s">
+      <c r="G54" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="H54" s="25" t="s">
+      <c r="H54" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="I54" s="38">
+      <c r="I54" s="26">
         <f t="shared" ref="I54:X54" si="27">I35</f>
         <v>0.5</v>
       </c>
-      <c r="J54" s="38">
+      <c r="J54" s="26">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="K54" s="38">
+      <c r="K54" s="26">
         <f t="shared" si="27"/>
         <v>0.25</v>
       </c>
-      <c r="L54" s="38">
+      <c r="L54" s="26">
         <f t="shared" si="27"/>
         <v>0.25</v>
       </c>
-      <c r="M54" s="38">
+      <c r="M54" s="26">
         <f t="shared" si="27"/>
         <v>0.5</v>
       </c>
-      <c r="N54" s="38">
+      <c r="N54" s="26">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="O54" s="38">
+      <c r="O54" s="26">
         <f t="shared" si="27"/>
         <v>0.25</v>
       </c>
-      <c r="P54" s="38">
+      <c r="P54" s="26">
         <f t="shared" si="27"/>
         <v>0.25</v>
       </c>
-      <c r="Q54" s="38">
+      <c r="Q54" s="26">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="R54" s="38">
+      <c r="R54" s="26">
         <f t="shared" si="27"/>
         <v>0.25</v>
       </c>
-      <c r="S54" s="38">
+      <c r="S54" s="26">
         <f t="shared" si="27"/>
         <v>0.5</v>
       </c>
-      <c r="T54" s="38">
+      <c r="T54" s="26">
         <f t="shared" si="27"/>
         <v>0.5</v>
       </c>
-      <c r="U54" s="38">
+      <c r="U54" s="26">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="V54" s="38">
+      <c r="V54" s="26">
         <f t="shared" si="27"/>
         <v>0.25</v>
       </c>
-      <c r="W54" s="38">
+      <c r="W54" s="26">
         <f t="shared" si="27"/>
         <v>0.25</v>
       </c>
-      <c r="X54" s="38">
+      <c r="X54" s="26">
         <f t="shared" si="27"/>
         <v>0.25</v>
       </c>
@@ -15845,73 +15838,73 @@
       <c r="Z54" s="11"/>
     </row>
     <row r="55" spans="7:26" ht="84" customHeight="1" x14ac:dyDescent="1.35">
-      <c r="G55" s="25" t="s">
+      <c r="G55" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="H55" s="25" t="s">
+      <c r="H55" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="I55" s="38">
+      <c r="I55" s="26">
         <f t="shared" ref="I55:X55" si="28">I36</f>
         <v>0</v>
       </c>
-      <c r="J55" s="38">
+      <c r="J55" s="26">
         <f t="shared" si="28"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="K55" s="38">
+      <c r="K55" s="26">
         <f t="shared" si="28"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="L55" s="38">
+      <c r="L55" s="26">
         <f t="shared" si="28"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="M55" s="38">
+      <c r="M55" s="26">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="N55" s="38">
+      <c r="N55" s="26">
         <f t="shared" si="28"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="O55" s="38">
+      <c r="O55" s="26">
         <f t="shared" si="28"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="P55" s="38">
+      <c r="P55" s="26">
         <f t="shared" si="28"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="Q55" s="38">
+      <c r="Q55" s="26">
         <f t="shared" si="28"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="R55" s="38">
+      <c r="R55" s="26">
         <f t="shared" si="28"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="S55" s="38">
+      <c r="S55" s="26">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="T55" s="38">
+      <c r="T55" s="26">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="U55" s="38">
+      <c r="U55" s="26">
         <f t="shared" si="28"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="V55" s="38">
+      <c r="V55" s="26">
         <f t="shared" si="28"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="W55" s="38">
+      <c r="W55" s="26">
         <f t="shared" si="28"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="X55" s="38">
+      <c r="X55" s="26">
         <f t="shared" si="28"/>
         <v>0.33333333333333331</v>
       </c>
@@ -16124,1353 +16117,1353 @@
   <dimension ref="A1:AB45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AF26" sqref="AF26"/>
+      <selection activeCell="S21" sqref="S21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="22" customWidth="1"/>
-    <col min="2" max="2" width="5.88671875" style="22" customWidth="1"/>
-    <col min="3" max="17" width="8.88671875" style="22"/>
-    <col min="18" max="18" width="11.6640625" style="22" customWidth="1"/>
-    <col min="19" max="19" width="8.88671875" style="22"/>
-    <col min="20" max="32" width="5.109375" style="22" customWidth="1"/>
-    <col min="33" max="33" width="2.6640625" style="22" customWidth="1"/>
-    <col min="34" max="16384" width="8.88671875" style="22"/>
+    <col min="1" max="1" width="8.88671875" style="28" customWidth="1"/>
+    <col min="2" max="2" width="5.88671875" style="28" customWidth="1"/>
+    <col min="3" max="17" width="8.88671875" style="28"/>
+    <col min="18" max="18" width="11.6640625" style="28" customWidth="1"/>
+    <col min="19" max="19" width="8.88671875" style="28"/>
+    <col min="20" max="32" width="5.109375" style="28" customWidth="1"/>
+    <col min="33" max="33" width="2.6640625" style="28" customWidth="1"/>
+    <col min="34" max="16384" width="8.88671875" style="28"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="21"/>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="21"/>
-      <c r="Q1" s="21"/>
-      <c r="R1" s="21"/>
-      <c r="S1" s="21"/>
-      <c r="T1" s="21"/>
-      <c r="U1" s="21"/>
-      <c r="V1" s="21"/>
+      <c r="A1" s="27"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
+      <c r="P1" s="27"/>
+      <c r="Q1" s="27"/>
+      <c r="R1" s="27"/>
+      <c r="S1" s="27"/>
+      <c r="T1" s="27"/>
+      <c r="U1" s="27"/>
+      <c r="V1" s="27"/>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A2" s="21"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
-      <c r="N2" s="27"/>
-      <c r="O2" s="27"/>
-      <c r="P2" s="27"/>
-      <c r="Q2" s="27"/>
-      <c r="R2" s="27"/>
-      <c r="S2" s="27"/>
-      <c r="T2" s="27"/>
-      <c r="U2" s="27"/>
-      <c r="V2" s="27"/>
-      <c r="W2" s="27"/>
-      <c r="X2" s="27"/>
-      <c r="Y2" s="27"/>
-      <c r="Z2" s="27"/>
-      <c r="AA2" s="27"/>
-      <c r="AB2" s="28"/>
+      <c r="A2" s="27"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="30"/>
+      <c r="P2" s="30"/>
+      <c r="Q2" s="30"/>
+      <c r="R2" s="30"/>
+      <c r="S2" s="30"/>
+      <c r="T2" s="30"/>
+      <c r="U2" s="30"/>
+      <c r="V2" s="30"/>
+      <c r="W2" s="30"/>
+      <c r="X2" s="30"/>
+      <c r="Y2" s="30"/>
+      <c r="Z2" s="30"/>
+      <c r="AA2" s="30"/>
+      <c r="AB2" s="31"/>
     </row>
     <row r="3" spans="1:28" ht="28.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="21"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="30" t="s">
+      <c r="A3" s="27"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="23"/>
-      <c r="L3" s="23"/>
-      <c r="M3" s="23"/>
-      <c r="N3" s="23"/>
-      <c r="O3" s="23"/>
-      <c r="P3" s="23"/>
-      <c r="Q3" s="21"/>
-      <c r="R3" s="23"/>
-      <c r="S3" s="30" t="s">
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="33"/>
+      <c r="M3" s="33"/>
+      <c r="N3" s="33"/>
+      <c r="O3" s="33"/>
+      <c r="P3" s="33"/>
+      <c r="Q3" s="27"/>
+      <c r="R3" s="33"/>
+      <c r="S3" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="T3" s="23"/>
-      <c r="U3" s="23"/>
-      <c r="V3" s="23"/>
-      <c r="W3" s="23"/>
-      <c r="X3" s="23"/>
-      <c r="Y3" s="23"/>
-      <c r="Z3" s="23"/>
-      <c r="AA3" s="23"/>
-      <c r="AB3" s="31"/>
+      <c r="T3" s="33"/>
+      <c r="U3" s="33"/>
+      <c r="V3" s="33"/>
+      <c r="W3" s="33"/>
+      <c r="X3" s="33"/>
+      <c r="Y3" s="33"/>
+      <c r="Z3" s="33"/>
+      <c r="AA3" s="33"/>
+      <c r="AB3" s="34"/>
     </row>
     <row r="4" spans="1:28" ht="28.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="21"/>
-      <c r="B4" s="29"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23"/>
-      <c r="J4" s="23"/>
-      <c r="K4" s="23"/>
-      <c r="L4" s="23"/>
-      <c r="M4" s="23"/>
-      <c r="N4" s="23"/>
-      <c r="O4" s="23"/>
-      <c r="P4" s="23"/>
-      <c r="Q4" s="23"/>
-      <c r="R4" s="23"/>
-      <c r="S4" s="23"/>
-      <c r="T4" s="23"/>
-      <c r="U4" s="23"/>
-      <c r="V4" s="23"/>
-      <c r="W4" s="23"/>
-      <c r="X4" s="23"/>
-      <c r="Y4" s="23"/>
-      <c r="Z4" s="23"/>
-      <c r="AA4" s="23"/>
-      <c r="AB4" s="31"/>
+      <c r="A4" s="27"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="33"/>
+      <c r="L4" s="33"/>
+      <c r="M4" s="33"/>
+      <c r="N4" s="33"/>
+      <c r="O4" s="33"/>
+      <c r="P4" s="33"/>
+      <c r="Q4" s="33"/>
+      <c r="R4" s="33"/>
+      <c r="S4" s="33"/>
+      <c r="T4" s="33"/>
+      <c r="U4" s="33"/>
+      <c r="V4" s="33"/>
+      <c r="W4" s="33"/>
+      <c r="X4" s="33"/>
+      <c r="Y4" s="33"/>
+      <c r="Z4" s="33"/>
+      <c r="AA4" s="33"/>
+      <c r="AB4" s="34"/>
     </row>
     <row r="5" spans="1:28" ht="28.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="21"/>
-      <c r="B5" s="29"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="21"/>
-      <c r="M5" s="21"/>
-      <c r="N5" s="21"/>
-      <c r="O5" s="21"/>
-      <c r="P5" s="21"/>
-      <c r="Q5" s="21"/>
-      <c r="R5" s="21"/>
-      <c r="S5" s="21"/>
-      <c r="T5" s="21"/>
-      <c r="U5" s="21"/>
-      <c r="V5" s="21"/>
-      <c r="W5" s="21"/>
-      <c r="X5" s="21"/>
-      <c r="Y5" s="21"/>
-      <c r="Z5" s="21"/>
-      <c r="AA5" s="21"/>
-      <c r="AB5" s="32"/>
+      <c r="A5" s="27"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="27"/>
+      <c r="L5" s="27"/>
+      <c r="M5" s="27"/>
+      <c r="N5" s="27"/>
+      <c r="O5" s="27"/>
+      <c r="P5" s="27"/>
+      <c r="Q5" s="27"/>
+      <c r="R5" s="27"/>
+      <c r="S5" s="27"/>
+      <c r="T5" s="27"/>
+      <c r="U5" s="27"/>
+      <c r="V5" s="27"/>
+      <c r="W5" s="27"/>
+      <c r="X5" s="27"/>
+      <c r="Y5" s="27"/>
+      <c r="Z5" s="27"/>
+      <c r="AA5" s="27"/>
+      <c r="AB5" s="35"/>
     </row>
     <row r="6" spans="1:28" ht="28.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="21"/>
-      <c r="B6" s="29"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="21"/>
-      <c r="M6" s="21"/>
-      <c r="N6" s="21"/>
-      <c r="O6" s="21"/>
-      <c r="P6" s="21"/>
-      <c r="Q6" s="21"/>
-      <c r="R6" s="21"/>
-      <c r="S6" s="21"/>
-      <c r="T6" s="21"/>
-      <c r="U6" s="21"/>
-      <c r="V6" s="21"/>
-      <c r="W6" s="21"/>
-      <c r="X6" s="21"/>
-      <c r="Y6" s="21"/>
-      <c r="Z6" s="21"/>
-      <c r="AA6" s="21"/>
-      <c r="AB6" s="32"/>
+      <c r="A6" s="27"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="27"/>
+      <c r="K6" s="27"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="27"/>
+      <c r="N6" s="27"/>
+      <c r="O6" s="27"/>
+      <c r="P6" s="27"/>
+      <c r="Q6" s="27"/>
+      <c r="R6" s="27"/>
+      <c r="S6" s="27"/>
+      <c r="T6" s="27"/>
+      <c r="U6" s="27"/>
+      <c r="V6" s="27"/>
+      <c r="W6" s="27"/>
+      <c r="X6" s="27"/>
+      <c r="Y6" s="27"/>
+      <c r="Z6" s="27"/>
+      <c r="AA6" s="27"/>
+      <c r="AB6" s="35"/>
     </row>
     <row r="7" spans="1:28" ht="28.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="21"/>
-      <c r="B7" s="29"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="21"/>
-      <c r="L7" s="21"/>
-      <c r="M7" s="21"/>
-      <c r="N7" s="21"/>
-      <c r="O7" s="21"/>
-      <c r="P7" s="21"/>
-      <c r="Q7" s="21"/>
-      <c r="R7" s="21"/>
-      <c r="S7" s="21"/>
-      <c r="T7" s="21"/>
-      <c r="U7" s="21"/>
-      <c r="V7" s="21"/>
-      <c r="W7" s="21"/>
-      <c r="X7" s="21"/>
-      <c r="Y7" s="21"/>
-      <c r="Z7" s="21"/>
-      <c r="AA7" s="21"/>
-      <c r="AB7" s="32"/>
+      <c r="A7" s="27"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="27"/>
+      <c r="N7" s="27"/>
+      <c r="O7" s="27"/>
+      <c r="P7" s="27"/>
+      <c r="Q7" s="27"/>
+      <c r="R7" s="27"/>
+      <c r="S7" s="27"/>
+      <c r="T7" s="27"/>
+      <c r="U7" s="27"/>
+      <c r="V7" s="27"/>
+      <c r="W7" s="27"/>
+      <c r="X7" s="27"/>
+      <c r="Y7" s="27"/>
+      <c r="Z7" s="27"/>
+      <c r="AA7" s="27"/>
+      <c r="AB7" s="35"/>
     </row>
     <row r="8" spans="1:28" ht="28.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="21"/>
-      <c r="B8" s="29"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="21"/>
-      <c r="M8" s="21"/>
-      <c r="N8" s="21"/>
-      <c r="O8" s="21"/>
-      <c r="P8" s="21"/>
-      <c r="Q8" s="21"/>
-      <c r="R8" s="21"/>
-      <c r="S8" s="21"/>
-      <c r="T8" s="21"/>
-      <c r="U8" s="21"/>
-      <c r="V8" s="21"/>
-      <c r="W8" s="21"/>
-      <c r="X8" s="21"/>
-      <c r="Y8" s="21"/>
-      <c r="Z8" s="21"/>
-      <c r="AA8" s="21"/>
-      <c r="AB8" s="32"/>
+      <c r="A8" s="27"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="27"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="27"/>
+      <c r="N8" s="27"/>
+      <c r="O8" s="27"/>
+      <c r="P8" s="27"/>
+      <c r="Q8" s="27"/>
+      <c r="R8" s="27"/>
+      <c r="S8" s="27"/>
+      <c r="T8" s="27"/>
+      <c r="U8" s="27"/>
+      <c r="V8" s="27"/>
+      <c r="W8" s="27"/>
+      <c r="X8" s="27"/>
+      <c r="Y8" s="27"/>
+      <c r="Z8" s="27"/>
+      <c r="AA8" s="27"/>
+      <c r="AB8" s="35"/>
     </row>
     <row r="9" spans="1:28" ht="28.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="21"/>
-      <c r="B9" s="29"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21"/>
-      <c r="L9" s="21"/>
-      <c r="M9" s="21"/>
-      <c r="N9" s="21"/>
-      <c r="O9" s="21"/>
-      <c r="P9" s="21"/>
-      <c r="Q9" s="21"/>
-      <c r="R9" s="21"/>
-      <c r="S9" s="21"/>
-      <c r="T9" s="21"/>
-      <c r="U9" s="21"/>
-      <c r="V9" s="21"/>
-      <c r="W9" s="21"/>
-      <c r="X9" s="21"/>
-      <c r="Y9" s="21"/>
-      <c r="Z9" s="21"/>
-      <c r="AA9" s="21"/>
-      <c r="AB9" s="32"/>
+      <c r="A9" s="27"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="27"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="27"/>
+      <c r="N9" s="27"/>
+      <c r="O9" s="27"/>
+      <c r="P9" s="27"/>
+      <c r="Q9" s="27"/>
+      <c r="R9" s="27"/>
+      <c r="S9" s="27"/>
+      <c r="T9" s="27"/>
+      <c r="U9" s="27"/>
+      <c r="V9" s="27"/>
+      <c r="W9" s="27"/>
+      <c r="X9" s="27"/>
+      <c r="Y9" s="27"/>
+      <c r="Z9" s="27"/>
+      <c r="AA9" s="27"/>
+      <c r="AB9" s="35"/>
     </row>
     <row r="10" spans="1:28" ht="28.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="21"/>
-      <c r="B10" s="29"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="21"/>
-      <c r="M10" s="21"/>
-      <c r="N10" s="21"/>
-      <c r="O10" s="21"/>
-      <c r="P10" s="21"/>
-      <c r="Q10" s="21"/>
-      <c r="R10" s="21"/>
-      <c r="S10" s="21"/>
-      <c r="T10" s="21"/>
-      <c r="U10" s="21"/>
-      <c r="V10" s="21"/>
-      <c r="W10" s="21"/>
-      <c r="X10" s="21"/>
-      <c r="Y10" s="21"/>
-      <c r="Z10" s="21"/>
-      <c r="AA10" s="21"/>
-      <c r="AB10" s="32"/>
+      <c r="A10" s="27"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="27"/>
+      <c r="N10" s="27"/>
+      <c r="O10" s="27"/>
+      <c r="P10" s="27"/>
+      <c r="Q10" s="27"/>
+      <c r="R10" s="27"/>
+      <c r="S10" s="27"/>
+      <c r="T10" s="27"/>
+      <c r="U10" s="27"/>
+      <c r="V10" s="27"/>
+      <c r="W10" s="27"/>
+      <c r="X10" s="27"/>
+      <c r="Y10" s="27"/>
+      <c r="Z10" s="27"/>
+      <c r="AA10" s="27"/>
+      <c r="AB10" s="35"/>
     </row>
     <row r="11" spans="1:28" ht="28.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="21"/>
-      <c r="B11" s="29"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="21"/>
-      <c r="L11" s="21"/>
-      <c r="M11" s="21"/>
-      <c r="N11" s="21"/>
-      <c r="O11" s="21"/>
-      <c r="P11" s="21"/>
-      <c r="Q11" s="21"/>
-      <c r="R11" s="21"/>
-      <c r="S11" s="21"/>
-      <c r="T11" s="21"/>
-      <c r="U11" s="21"/>
-      <c r="V11" s="21"/>
-      <c r="W11" s="21"/>
-      <c r="X11" s="21"/>
-      <c r="Y11" s="21"/>
-      <c r="Z11" s="21"/>
-      <c r="AA11" s="21"/>
-      <c r="AB11" s="32"/>
+      <c r="A11" s="27"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="27"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="27"/>
+      <c r="N11" s="27"/>
+      <c r="O11" s="27"/>
+      <c r="P11" s="27"/>
+      <c r="Q11" s="27"/>
+      <c r="R11" s="27"/>
+      <c r="S11" s="27"/>
+      <c r="T11" s="27"/>
+      <c r="U11" s="27"/>
+      <c r="V11" s="27"/>
+      <c r="W11" s="27"/>
+      <c r="X11" s="27"/>
+      <c r="Y11" s="27"/>
+      <c r="Z11" s="27"/>
+      <c r="AA11" s="27"/>
+      <c r="AB11" s="35"/>
     </row>
     <row r="12" spans="1:28" ht="28.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="21"/>
-      <c r="B12" s="29"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="21"/>
-      <c r="L12" s="21"/>
-      <c r="M12" s="21"/>
-      <c r="N12" s="21"/>
-      <c r="O12" s="21"/>
-      <c r="P12" s="21"/>
-      <c r="Q12" s="21"/>
-      <c r="R12" s="21"/>
-      <c r="S12" s="21"/>
-      <c r="T12" s="21"/>
-      <c r="U12" s="21"/>
-      <c r="V12" s="21"/>
-      <c r="W12" s="21"/>
-      <c r="X12" s="21"/>
-      <c r="Y12" s="21"/>
-      <c r="Z12" s="21"/>
-      <c r="AA12" s="21"/>
-      <c r="AB12" s="32"/>
+      <c r="A12" s="27"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="27"/>
+      <c r="L12" s="27"/>
+      <c r="M12" s="27"/>
+      <c r="N12" s="27"/>
+      <c r="O12" s="27"/>
+      <c r="P12" s="27"/>
+      <c r="Q12" s="27"/>
+      <c r="R12" s="27"/>
+      <c r="S12" s="27"/>
+      <c r="T12" s="27"/>
+      <c r="U12" s="27"/>
+      <c r="V12" s="27"/>
+      <c r="W12" s="27"/>
+      <c r="X12" s="27"/>
+      <c r="Y12" s="27"/>
+      <c r="Z12" s="27"/>
+      <c r="AA12" s="27"/>
+      <c r="AB12" s="35"/>
     </row>
     <row r="13" spans="1:28" ht="28.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="21"/>
-      <c r="B13" s="29"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="21"/>
-      <c r="L13" s="21"/>
-      <c r="M13" s="21"/>
-      <c r="N13" s="21"/>
-      <c r="O13" s="21"/>
-      <c r="P13" s="21"/>
-      <c r="Q13" s="21"/>
-      <c r="R13" s="21"/>
-      <c r="S13" s="21"/>
-      <c r="T13" s="21"/>
-      <c r="U13" s="21"/>
-      <c r="V13" s="21"/>
-      <c r="W13" s="21"/>
-      <c r="X13" s="21"/>
-      <c r="Y13" s="21"/>
-      <c r="Z13" s="21"/>
-      <c r="AA13" s="21"/>
-      <c r="AB13" s="32"/>
+      <c r="A13" s="27"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="27"/>
+      <c r="L13" s="27"/>
+      <c r="M13" s="27"/>
+      <c r="N13" s="27"/>
+      <c r="O13" s="27"/>
+      <c r="P13" s="27"/>
+      <c r="Q13" s="27"/>
+      <c r="R13" s="27"/>
+      <c r="S13" s="27"/>
+      <c r="T13" s="27"/>
+      <c r="U13" s="27"/>
+      <c r="V13" s="27"/>
+      <c r="W13" s="27"/>
+      <c r="X13" s="27"/>
+      <c r="Y13" s="27"/>
+      <c r="Z13" s="27"/>
+      <c r="AA13" s="27"/>
+      <c r="AB13" s="35"/>
     </row>
     <row r="14" spans="1:28" ht="28.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="21"/>
-      <c r="B14" s="29"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="21"/>
-      <c r="L14" s="21"/>
-      <c r="M14" s="21"/>
-      <c r="N14" s="21"/>
-      <c r="O14" s="21"/>
-      <c r="P14" s="21"/>
-      <c r="Q14" s="21"/>
-      <c r="R14" s="21"/>
-      <c r="S14" s="21"/>
-      <c r="T14" s="21"/>
-      <c r="U14" s="21"/>
-      <c r="V14" s="21"/>
-      <c r="W14" s="21"/>
-      <c r="X14" s="21"/>
-      <c r="Y14" s="21"/>
-      <c r="Z14" s="21"/>
-      <c r="AA14" s="21"/>
-      <c r="AB14" s="32"/>
+      <c r="A14" s="27"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="27"/>
+      <c r="L14" s="27"/>
+      <c r="M14" s="27"/>
+      <c r="N14" s="27"/>
+      <c r="O14" s="27"/>
+      <c r="P14" s="27"/>
+      <c r="Q14" s="27"/>
+      <c r="R14" s="27"/>
+      <c r="S14" s="27"/>
+      <c r="T14" s="27"/>
+      <c r="U14" s="27"/>
+      <c r="V14" s="27"/>
+      <c r="W14" s="27"/>
+      <c r="X14" s="27"/>
+      <c r="Y14" s="27"/>
+      <c r="Z14" s="27"/>
+      <c r="AA14" s="27"/>
+      <c r="AB14" s="35"/>
     </row>
     <row r="15" spans="1:28" ht="28.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="21"/>
-      <c r="B15" s="29"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="21"/>
-      <c r="L15" s="21"/>
-      <c r="M15" s="21"/>
-      <c r="N15" s="21"/>
-      <c r="O15" s="21"/>
-      <c r="P15" s="21"/>
-      <c r="Q15" s="21"/>
-      <c r="R15" s="21"/>
-      <c r="S15" s="21"/>
-      <c r="T15" s="21"/>
-      <c r="U15" s="21"/>
-      <c r="V15" s="21"/>
-      <c r="W15" s="21"/>
-      <c r="X15" s="21"/>
-      <c r="Y15" s="21"/>
-      <c r="Z15" s="21"/>
-      <c r="AA15" s="21"/>
-      <c r="AB15" s="32"/>
+      <c r="A15" s="27"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="27"/>
+      <c r="L15" s="27"/>
+      <c r="M15" s="27"/>
+      <c r="N15" s="27"/>
+      <c r="O15" s="27"/>
+      <c r="P15" s="27"/>
+      <c r="Q15" s="27"/>
+      <c r="R15" s="27"/>
+      <c r="S15" s="27"/>
+      <c r="T15" s="27"/>
+      <c r="U15" s="27"/>
+      <c r="V15" s="27"/>
+      <c r="W15" s="27"/>
+      <c r="X15" s="27"/>
+      <c r="Y15" s="27"/>
+      <c r="Z15" s="27"/>
+      <c r="AA15" s="27"/>
+      <c r="AB15" s="35"/>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A16" s="21"/>
-      <c r="B16" s="29"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="21"/>
-      <c r="L16" s="21"/>
-      <c r="M16" s="21"/>
-      <c r="N16" s="21"/>
-      <c r="O16" s="21"/>
-      <c r="P16" s="21"/>
-      <c r="Q16" s="21"/>
-      <c r="R16" s="21"/>
-      <c r="S16" s="21"/>
-      <c r="T16" s="21"/>
-      <c r="U16" s="21"/>
-      <c r="V16" s="21"/>
-      <c r="W16" s="21"/>
-      <c r="X16" s="21"/>
-      <c r="Y16" s="21"/>
-      <c r="Z16" s="21"/>
-      <c r="AA16" s="21"/>
-      <c r="AB16" s="32"/>
+      <c r="A16" s="27"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="27"/>
+      <c r="K16" s="27"/>
+      <c r="L16" s="27"/>
+      <c r="M16" s="27"/>
+      <c r="N16" s="27"/>
+      <c r="O16" s="27"/>
+      <c r="P16" s="27"/>
+      <c r="Q16" s="27"/>
+      <c r="R16" s="27"/>
+      <c r="S16" s="27"/>
+      <c r="T16" s="27"/>
+      <c r="U16" s="27"/>
+      <c r="V16" s="27"/>
+      <c r="W16" s="27"/>
+      <c r="X16" s="27"/>
+      <c r="Y16" s="27"/>
+      <c r="Z16" s="27"/>
+      <c r="AA16" s="27"/>
+      <c r="AB16" s="35"/>
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A17" s="21"/>
-      <c r="B17" s="29"/>
-      <c r="C17" s="33" t="s">
+      <c r="A17" s="27"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="21"/>
-      <c r="L17" s="21"/>
-      <c r="M17" s="21"/>
-      <c r="N17" s="21"/>
-      <c r="O17" s="21"/>
-      <c r="P17" s="21"/>
-      <c r="Q17" s="21"/>
-      <c r="R17" s="21"/>
-      <c r="S17" s="33"/>
-      <c r="T17" s="21"/>
-      <c r="U17" s="21"/>
-      <c r="V17" s="21"/>
-      <c r="W17" s="21"/>
-      <c r="X17" s="21"/>
-      <c r="Y17" s="21"/>
-      <c r="Z17" s="21"/>
-      <c r="AA17" s="21"/>
-      <c r="AB17" s="32"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="27"/>
+      <c r="L17" s="27"/>
+      <c r="M17" s="27"/>
+      <c r="N17" s="27"/>
+      <c r="O17" s="27"/>
+      <c r="P17" s="27"/>
+      <c r="Q17" s="27"/>
+      <c r="R17" s="27"/>
+      <c r="S17" s="24"/>
+      <c r="T17" s="27"/>
+      <c r="U17" s="27"/>
+      <c r="V17" s="27"/>
+      <c r="W17" s="27"/>
+      <c r="X17" s="27"/>
+      <c r="Y17" s="27"/>
+      <c r="Z17" s="27"/>
+      <c r="AA17" s="27"/>
+      <c r="AB17" s="35"/>
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A18" s="21"/>
-      <c r="B18" s="29"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="21"/>
-      <c r="K18" s="21"/>
-      <c r="L18" s="21"/>
-      <c r="M18" s="21"/>
-      <c r="N18" s="21"/>
-      <c r="O18" s="21"/>
-      <c r="P18" s="21"/>
-      <c r="Q18" s="21"/>
-      <c r="R18" s="21"/>
-      <c r="S18" s="33"/>
-      <c r="T18" s="21"/>
-      <c r="U18" s="21"/>
-      <c r="V18" s="21"/>
-      <c r="W18" s="21"/>
-      <c r="X18" s="21"/>
-      <c r="Y18" s="21"/>
-      <c r="Z18" s="21"/>
-      <c r="AA18" s="21"/>
-      <c r="AB18" s="32"/>
+      <c r="A18" s="27"/>
+      <c r="B18" s="32"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="27"/>
+      <c r="K18" s="27"/>
+      <c r="L18" s="27"/>
+      <c r="M18" s="27"/>
+      <c r="N18" s="27"/>
+      <c r="O18" s="27"/>
+      <c r="P18" s="27"/>
+      <c r="Q18" s="27"/>
+      <c r="R18" s="27"/>
+      <c r="S18" s="24"/>
+      <c r="T18" s="27"/>
+      <c r="U18" s="27"/>
+      <c r="V18" s="27"/>
+      <c r="W18" s="27"/>
+      <c r="X18" s="27"/>
+      <c r="Y18" s="27"/>
+      <c r="Z18" s="27"/>
+      <c r="AA18" s="27"/>
+      <c r="AB18" s="35"/>
     </row>
     <row r="19" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A19" s="21"/>
-      <c r="B19" s="29"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="21"/>
-      <c r="J19" s="21"/>
-      <c r="K19" s="21"/>
-      <c r="L19" s="21"/>
-      <c r="M19" s="21"/>
-      <c r="N19" s="21"/>
-      <c r="O19" s="21"/>
-      <c r="P19" s="21"/>
-      <c r="Q19" s="21"/>
-      <c r="R19" s="21"/>
-      <c r="S19" s="21"/>
-      <c r="T19" s="21"/>
-      <c r="U19" s="21"/>
-      <c r="V19" s="21"/>
-      <c r="W19" s="21"/>
-      <c r="X19" s="21"/>
-      <c r="Y19" s="21"/>
-      <c r="Z19" s="21"/>
-      <c r="AA19" s="21"/>
-      <c r="AB19" s="32"/>
+      <c r="A19" s="27"/>
+      <c r="B19" s="32"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="27"/>
+      <c r="K19" s="27"/>
+      <c r="L19" s="27"/>
+      <c r="M19" s="27"/>
+      <c r="N19" s="27"/>
+      <c r="O19" s="27"/>
+      <c r="P19" s="27"/>
+      <c r="Q19" s="27"/>
+      <c r="R19" s="27"/>
+      <c r="S19" s="27"/>
+      <c r="T19" s="27"/>
+      <c r="U19" s="27"/>
+      <c r="V19" s="27"/>
+      <c r="W19" s="27"/>
+      <c r="X19" s="27"/>
+      <c r="Y19" s="27"/>
+      <c r="Z19" s="27"/>
+      <c r="AA19" s="27"/>
+      <c r="AB19" s="35"/>
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A20" s="21"/>
-      <c r="B20" s="29"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="21"/>
-      <c r="I20" s="21"/>
-      <c r="J20" s="21"/>
-      <c r="K20" s="21"/>
-      <c r="L20" s="21"/>
-      <c r="M20" s="21"/>
-      <c r="N20" s="21"/>
-      <c r="O20" s="21"/>
-      <c r="P20" s="21"/>
-      <c r="Q20" s="21"/>
-      <c r="R20" s="21"/>
-      <c r="S20" s="21"/>
-      <c r="T20" s="21"/>
-      <c r="U20" s="21"/>
-      <c r="V20" s="21"/>
-      <c r="W20" s="21"/>
-      <c r="X20" s="21"/>
-      <c r="Y20" s="21"/>
-      <c r="Z20" s="21"/>
-      <c r="AA20" s="21"/>
-      <c r="AB20" s="32"/>
+      <c r="A20" s="27"/>
+      <c r="B20" s="32"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="27"/>
+      <c r="J20" s="27"/>
+      <c r="K20" s="27"/>
+      <c r="L20" s="27"/>
+      <c r="M20" s="27"/>
+      <c r="N20" s="27"/>
+      <c r="O20" s="27"/>
+      <c r="P20" s="27"/>
+      <c r="Q20" s="27"/>
+      <c r="R20" s="27"/>
+      <c r="S20" s="27"/>
+      <c r="T20" s="27"/>
+      <c r="U20" s="27"/>
+      <c r="V20" s="27"/>
+      <c r="W20" s="27"/>
+      <c r="X20" s="27"/>
+      <c r="Y20" s="27"/>
+      <c r="Z20" s="27"/>
+      <c r="AA20" s="27"/>
+      <c r="AB20" s="35"/>
     </row>
     <row r="21" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="21"/>
-      <c r="B21" s="29"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="21"/>
-      <c r="H21" s="21"/>
-      <c r="I21" s="21"/>
-      <c r="J21" s="21"/>
-      <c r="K21" s="21"/>
-      <c r="L21" s="21"/>
-      <c r="M21" s="21"/>
-      <c r="N21" s="21"/>
-      <c r="O21" s="21"/>
-      <c r="P21" s="21"/>
-      <c r="Q21" s="21"/>
-      <c r="R21" s="21"/>
-      <c r="S21" s="30" t="s">
+      <c r="A21" s="27"/>
+      <c r="B21" s="32"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="27"/>
+      <c r="J21" s="27"/>
+      <c r="K21" s="27"/>
+      <c r="L21" s="27"/>
+      <c r="M21" s="27"/>
+      <c r="N21" s="27"/>
+      <c r="O21" s="27"/>
+      <c r="P21" s="27"/>
+      <c r="Q21" s="27"/>
+      <c r="R21" s="27"/>
+      <c r="S21" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="T21" s="30"/>
-      <c r="U21" s="30"/>
-      <c r="V21" s="30"/>
-      <c r="W21" s="30"/>
-      <c r="X21" s="30"/>
-      <c r="Y21" s="30"/>
-      <c r="Z21" s="30"/>
-      <c r="AA21" s="21"/>
-      <c r="AB21" s="32"/>
+      <c r="T21" s="23"/>
+      <c r="U21" s="23"/>
+      <c r="V21" s="23"/>
+      <c r="W21" s="23"/>
+      <c r="X21" s="23"/>
+      <c r="Y21" s="23"/>
+      <c r="Z21" s="23"/>
+      <c r="AA21" s="27"/>
+      <c r="AB21" s="35"/>
     </row>
     <row r="22" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A22" s="21"/>
-      <c r="B22" s="29"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="21"/>
-      <c r="H22" s="21"/>
-      <c r="I22" s="21"/>
-      <c r="J22" s="21"/>
-      <c r="K22" s="21"/>
-      <c r="L22" s="21"/>
-      <c r="M22" s="21"/>
-      <c r="N22" s="21"/>
-      <c r="O22" s="21"/>
-      <c r="P22" s="21"/>
-      <c r="Q22" s="21"/>
-      <c r="R22" s="21"/>
-      <c r="S22" s="30"/>
-      <c r="T22" s="30"/>
-      <c r="U22" s="30"/>
-      <c r="V22" s="30"/>
-      <c r="W22" s="30"/>
-      <c r="X22" s="30"/>
-      <c r="Y22" s="30"/>
-      <c r="Z22" s="30"/>
-      <c r="AA22" s="21"/>
-      <c r="AB22" s="32"/>
+      <c r="A22" s="27"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="27"/>
+      <c r="J22" s="27"/>
+      <c r="K22" s="27"/>
+      <c r="L22" s="27"/>
+      <c r="M22" s="27"/>
+      <c r="N22" s="27"/>
+      <c r="O22" s="27"/>
+      <c r="P22" s="27"/>
+      <c r="Q22" s="27"/>
+      <c r="R22" s="27"/>
+      <c r="S22" s="23"/>
+      <c r="T22" s="23"/>
+      <c r="U22" s="23"/>
+      <c r="V22" s="23"/>
+      <c r="W22" s="23"/>
+      <c r="X22" s="23"/>
+      <c r="Y22" s="23"/>
+      <c r="Z22" s="23"/>
+      <c r="AA22" s="27"/>
+      <c r="AB22" s="35"/>
     </row>
     <row r="23" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A23" s="21"/>
-      <c r="B23" s="29"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="21"/>
-      <c r="H23" s="21"/>
-      <c r="I23" s="21"/>
-      <c r="J23" s="21"/>
-      <c r="K23" s="21"/>
-      <c r="L23" s="21"/>
-      <c r="M23" s="21"/>
-      <c r="N23" s="21"/>
-      <c r="O23" s="21"/>
-      <c r="P23" s="21"/>
-      <c r="Q23" s="21"/>
-      <c r="R23" s="21"/>
-      <c r="S23" s="21"/>
-      <c r="T23" s="21"/>
-      <c r="U23" s="21"/>
-      <c r="V23" s="21"/>
-      <c r="W23" s="21"/>
-      <c r="X23" s="21"/>
-      <c r="Y23" s="21"/>
-      <c r="Z23" s="21"/>
-      <c r="AA23" s="21"/>
-      <c r="AB23" s="32"/>
+      <c r="A23" s="27"/>
+      <c r="B23" s="32"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="27"/>
+      <c r="J23" s="27"/>
+      <c r="K23" s="27"/>
+      <c r="L23" s="27"/>
+      <c r="M23" s="27"/>
+      <c r="N23" s="27"/>
+      <c r="O23" s="27"/>
+      <c r="P23" s="27"/>
+      <c r="Q23" s="27"/>
+      <c r="R23" s="27"/>
+      <c r="S23" s="27"/>
+      <c r="T23" s="27"/>
+      <c r="U23" s="27"/>
+      <c r="V23" s="27"/>
+      <c r="W23" s="27"/>
+      <c r="X23" s="27"/>
+      <c r="Y23" s="27"/>
+      <c r="Z23" s="27"/>
+      <c r="AA23" s="27"/>
+      <c r="AB23" s="35"/>
     </row>
     <row r="24" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A24" s="21"/>
-      <c r="B24" s="29"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="21"/>
-      <c r="H24" s="21"/>
-      <c r="I24" s="21"/>
-      <c r="J24" s="21"/>
-      <c r="K24" s="21"/>
-      <c r="L24" s="21"/>
-      <c r="M24" s="21"/>
-      <c r="N24" s="21"/>
-      <c r="O24" s="21"/>
-      <c r="P24" s="21"/>
-      <c r="Q24" s="21"/>
-      <c r="R24" s="21"/>
-      <c r="S24" s="21"/>
-      <c r="T24" s="21"/>
-      <c r="U24" s="21"/>
-      <c r="V24" s="21"/>
-      <c r="W24" s="21"/>
-      <c r="X24" s="21"/>
-      <c r="Y24" s="21"/>
-      <c r="Z24" s="21"/>
-      <c r="AA24" s="21"/>
-      <c r="AB24" s="32"/>
+      <c r="A24" s="27"/>
+      <c r="B24" s="32"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="27"/>
+      <c r="I24" s="27"/>
+      <c r="J24" s="27"/>
+      <c r="K24" s="27"/>
+      <c r="L24" s="27"/>
+      <c r="M24" s="27"/>
+      <c r="N24" s="27"/>
+      <c r="O24" s="27"/>
+      <c r="P24" s="27"/>
+      <c r="Q24" s="27"/>
+      <c r="R24" s="27"/>
+      <c r="S24" s="27"/>
+      <c r="T24" s="27"/>
+      <c r="U24" s="27"/>
+      <c r="V24" s="27"/>
+      <c r="W24" s="27"/>
+      <c r="X24" s="27"/>
+      <c r="Y24" s="27"/>
+      <c r="Z24" s="27"/>
+      <c r="AA24" s="27"/>
+      <c r="AB24" s="35"/>
     </row>
     <row r="25" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="B25" s="29"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="21"/>
-      <c r="H25" s="21"/>
-      <c r="I25" s="21"/>
-      <c r="J25" s="21"/>
-      <c r="K25" s="21"/>
-      <c r="L25" s="21"/>
-      <c r="M25" s="21"/>
-      <c r="N25" s="21"/>
-      <c r="O25" s="21"/>
-      <c r="P25" s="21"/>
-      <c r="Q25" s="21"/>
-      <c r="R25" s="21"/>
-      <c r="S25" s="21"/>
-      <c r="T25" s="21"/>
-      <c r="U25" s="21"/>
-      <c r="V25" s="21"/>
-      <c r="W25" s="21"/>
-      <c r="X25" s="21"/>
-      <c r="Y25" s="21"/>
-      <c r="Z25" s="21"/>
-      <c r="AA25" s="21"/>
-      <c r="AB25" s="32"/>
+      <c r="B25" s="32"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="27"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="27"/>
+      <c r="I25" s="27"/>
+      <c r="J25" s="27"/>
+      <c r="K25" s="27"/>
+      <c r="L25" s="27"/>
+      <c r="M25" s="27"/>
+      <c r="N25" s="27"/>
+      <c r="O25" s="27"/>
+      <c r="P25" s="27"/>
+      <c r="Q25" s="27"/>
+      <c r="R25" s="27"/>
+      <c r="S25" s="27"/>
+      <c r="T25" s="27"/>
+      <c r="U25" s="27"/>
+      <c r="V25" s="27"/>
+      <c r="W25" s="27"/>
+      <c r="X25" s="27"/>
+      <c r="Y25" s="27"/>
+      <c r="Z25" s="27"/>
+      <c r="AA25" s="27"/>
+      <c r="AB25" s="35"/>
     </row>
     <row r="26" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="B26" s="29"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="21"/>
-      <c r="H26" s="21"/>
-      <c r="I26" s="21"/>
-      <c r="J26" s="21"/>
-      <c r="K26" s="21"/>
-      <c r="L26" s="21"/>
-      <c r="M26" s="21"/>
-      <c r="N26" s="21"/>
-      <c r="O26" s="21"/>
-      <c r="P26" s="21"/>
-      <c r="Q26" s="21"/>
-      <c r="R26" s="21"/>
-      <c r="S26" s="21"/>
-      <c r="T26" s="21"/>
-      <c r="U26" s="21"/>
-      <c r="V26" s="21"/>
-      <c r="W26" s="21"/>
-      <c r="X26" s="21"/>
-      <c r="Y26" s="21"/>
-      <c r="Z26" s="21"/>
-      <c r="AA26" s="21"/>
-      <c r="AB26" s="32"/>
+      <c r="B26" s="32"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="27"/>
+      <c r="J26" s="27"/>
+      <c r="K26" s="27"/>
+      <c r="L26" s="27"/>
+      <c r="M26" s="27"/>
+      <c r="N26" s="27"/>
+      <c r="O26" s="27"/>
+      <c r="P26" s="27"/>
+      <c r="Q26" s="27"/>
+      <c r="R26" s="27"/>
+      <c r="S26" s="27"/>
+      <c r="T26" s="27"/>
+      <c r="U26" s="27"/>
+      <c r="V26" s="27"/>
+      <c r="W26" s="27"/>
+      <c r="X26" s="27"/>
+      <c r="Y26" s="27"/>
+      <c r="Z26" s="27"/>
+      <c r="AA26" s="27"/>
+      <c r="AB26" s="35"/>
     </row>
     <row r="27" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="B27" s="29"/>
-      <c r="C27" s="21"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="21"/>
-      <c r="H27" s="21"/>
-      <c r="I27" s="21"/>
-      <c r="J27" s="21"/>
-      <c r="K27" s="21"/>
-      <c r="L27" s="21"/>
-      <c r="M27" s="21"/>
-      <c r="N27" s="21"/>
-      <c r="O27" s="21"/>
-      <c r="P27" s="21"/>
-      <c r="Q27" s="21"/>
-      <c r="R27" s="21"/>
-      <c r="S27" s="21"/>
-      <c r="T27" s="21"/>
-      <c r="U27" s="21"/>
-      <c r="V27" s="21"/>
-      <c r="W27" s="21"/>
-      <c r="X27" s="21"/>
-      <c r="Y27" s="21"/>
-      <c r="Z27" s="21"/>
-      <c r="AA27" s="21"/>
-      <c r="AB27" s="32"/>
+      <c r="B27" s="32"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="27"/>
+      <c r="I27" s="27"/>
+      <c r="J27" s="27"/>
+      <c r="K27" s="27"/>
+      <c r="L27" s="27"/>
+      <c r="M27" s="27"/>
+      <c r="N27" s="27"/>
+      <c r="O27" s="27"/>
+      <c r="P27" s="27"/>
+      <c r="Q27" s="27"/>
+      <c r="R27" s="27"/>
+      <c r="S27" s="27"/>
+      <c r="T27" s="27"/>
+      <c r="U27" s="27"/>
+      <c r="V27" s="27"/>
+      <c r="W27" s="27"/>
+      <c r="X27" s="27"/>
+      <c r="Y27" s="27"/>
+      <c r="Z27" s="27"/>
+      <c r="AA27" s="27"/>
+      <c r="AB27" s="35"/>
     </row>
     <row r="28" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="B28" s="29"/>
-      <c r="C28" s="21"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="21"/>
-      <c r="H28" s="21"/>
-      <c r="I28" s="21"/>
-      <c r="J28" s="21"/>
-      <c r="K28" s="21"/>
-      <c r="L28" s="21"/>
-      <c r="M28" s="21"/>
-      <c r="N28" s="21"/>
-      <c r="O28" s="21"/>
-      <c r="P28" s="21"/>
-      <c r="Q28" s="21"/>
-      <c r="R28" s="21"/>
-      <c r="S28" s="21"/>
-      <c r="T28" s="21"/>
-      <c r="U28" s="21"/>
-      <c r="V28" s="21"/>
-      <c r="W28" s="21"/>
-      <c r="X28" s="21"/>
-      <c r="Y28" s="21"/>
-      <c r="Z28" s="21"/>
-      <c r="AA28" s="21"/>
-      <c r="AB28" s="32"/>
+      <c r="B28" s="32"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="27"/>
+      <c r="I28" s="27"/>
+      <c r="J28" s="27"/>
+      <c r="K28" s="27"/>
+      <c r="L28" s="27"/>
+      <c r="M28" s="27"/>
+      <c r="N28" s="27"/>
+      <c r="O28" s="27"/>
+      <c r="P28" s="27"/>
+      <c r="Q28" s="27"/>
+      <c r="R28" s="27"/>
+      <c r="S28" s="27"/>
+      <c r="T28" s="27"/>
+      <c r="U28" s="27"/>
+      <c r="V28" s="27"/>
+      <c r="W28" s="27"/>
+      <c r="X28" s="27"/>
+      <c r="Y28" s="27"/>
+      <c r="Z28" s="27"/>
+      <c r="AA28" s="27"/>
+      <c r="AB28" s="35"/>
     </row>
     <row r="29" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="B29" s="29"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="21"/>
-      <c r="K29" s="21"/>
-      <c r="L29" s="21"/>
-      <c r="M29" s="21"/>
-      <c r="N29" s="21"/>
-      <c r="O29" s="21"/>
-      <c r="P29" s="21"/>
-      <c r="Q29" s="21"/>
-      <c r="R29" s="21"/>
-      <c r="S29" s="21"/>
-      <c r="T29" s="21"/>
-      <c r="U29" s="21"/>
-      <c r="V29" s="21"/>
-      <c r="W29" s="21"/>
-      <c r="X29" s="21"/>
-      <c r="Y29" s="21"/>
-      <c r="Z29" s="21"/>
-      <c r="AA29" s="21"/>
-      <c r="AB29" s="32"/>
+      <c r="B29" s="32"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="27"/>
+      <c r="I29" s="27"/>
+      <c r="J29" s="27"/>
+      <c r="K29" s="27"/>
+      <c r="L29" s="27"/>
+      <c r="M29" s="27"/>
+      <c r="N29" s="27"/>
+      <c r="O29" s="27"/>
+      <c r="P29" s="27"/>
+      <c r="Q29" s="27"/>
+      <c r="R29" s="27"/>
+      <c r="S29" s="27"/>
+      <c r="T29" s="27"/>
+      <c r="U29" s="27"/>
+      <c r="V29" s="27"/>
+      <c r="W29" s="27"/>
+      <c r="X29" s="27"/>
+      <c r="Y29" s="27"/>
+      <c r="Z29" s="27"/>
+      <c r="AA29" s="27"/>
+      <c r="AB29" s="35"/>
     </row>
     <row r="30" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="B30" s="29"/>
-      <c r="C30" s="21"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="21"/>
-      <c r="F30" s="21"/>
-      <c r="G30" s="21"/>
-      <c r="H30" s="21"/>
-      <c r="I30" s="21"/>
-      <c r="J30" s="21"/>
-      <c r="K30" s="21"/>
-      <c r="L30" s="21"/>
-      <c r="M30" s="21"/>
-      <c r="N30" s="21"/>
-      <c r="O30" s="21"/>
-      <c r="P30" s="21"/>
-      <c r="Q30" s="21"/>
-      <c r="R30" s="21"/>
-      <c r="S30" s="21"/>
-      <c r="T30" s="21"/>
-      <c r="U30" s="21"/>
-      <c r="V30" s="21"/>
-      <c r="W30" s="21"/>
-      <c r="X30" s="21"/>
-      <c r="Y30" s="21"/>
-      <c r="Z30" s="21"/>
-      <c r="AA30" s="21"/>
-      <c r="AB30" s="32"/>
+      <c r="B30" s="32"/>
+      <c r="C30" s="27"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="27"/>
+      <c r="I30" s="27"/>
+      <c r="J30" s="27"/>
+      <c r="K30" s="27"/>
+      <c r="L30" s="27"/>
+      <c r="M30" s="27"/>
+      <c r="N30" s="27"/>
+      <c r="O30" s="27"/>
+      <c r="P30" s="27"/>
+      <c r="Q30" s="27"/>
+      <c r="R30" s="27"/>
+      <c r="S30" s="27"/>
+      <c r="T30" s="27"/>
+      <c r="U30" s="27"/>
+      <c r="V30" s="27"/>
+      <c r="W30" s="27"/>
+      <c r="X30" s="27"/>
+      <c r="Y30" s="27"/>
+      <c r="Z30" s="27"/>
+      <c r="AA30" s="27"/>
+      <c r="AB30" s="35"/>
     </row>
     <row r="31" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="B31" s="29"/>
-      <c r="C31" s="21"/>
-      <c r="D31" s="21"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="21"/>
-      <c r="G31" s="21"/>
-      <c r="H31" s="21"/>
-      <c r="I31" s="21"/>
-      <c r="J31" s="21"/>
-      <c r="K31" s="21"/>
-      <c r="L31" s="21"/>
-      <c r="M31" s="21"/>
-      <c r="N31" s="21"/>
-      <c r="O31" s="21"/>
-      <c r="P31" s="21"/>
-      <c r="Q31" s="21"/>
-      <c r="R31" s="21"/>
-      <c r="S31" s="21"/>
-      <c r="T31" s="21"/>
-      <c r="U31" s="21"/>
-      <c r="V31" s="21"/>
-      <c r="W31" s="21"/>
-      <c r="X31" s="21"/>
-      <c r="Y31" s="21"/>
-      <c r="Z31" s="21"/>
-      <c r="AA31" s="21"/>
-      <c r="AB31" s="32"/>
+      <c r="B31" s="32"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="27"/>
+      <c r="F31" s="27"/>
+      <c r="G31" s="27"/>
+      <c r="H31" s="27"/>
+      <c r="I31" s="27"/>
+      <c r="J31" s="27"/>
+      <c r="K31" s="27"/>
+      <c r="L31" s="27"/>
+      <c r="M31" s="27"/>
+      <c r="N31" s="27"/>
+      <c r="O31" s="27"/>
+      <c r="P31" s="27"/>
+      <c r="Q31" s="27"/>
+      <c r="R31" s="27"/>
+      <c r="S31" s="27"/>
+      <c r="T31" s="27"/>
+      <c r="U31" s="27"/>
+      <c r="V31" s="27"/>
+      <c r="W31" s="27"/>
+      <c r="X31" s="27"/>
+      <c r="Y31" s="27"/>
+      <c r="Z31" s="27"/>
+      <c r="AA31" s="27"/>
+      <c r="AB31" s="35"/>
     </row>
     <row r="32" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="B32" s="29"/>
-      <c r="C32" s="21"/>
-      <c r="D32" s="21"/>
-      <c r="E32" s="21"/>
-      <c r="F32" s="21"/>
-      <c r="G32" s="21"/>
-      <c r="H32" s="21"/>
-      <c r="I32" s="21"/>
-      <c r="J32" s="21"/>
-      <c r="K32" s="21"/>
-      <c r="L32" s="21"/>
-      <c r="M32" s="21"/>
-      <c r="N32" s="21"/>
-      <c r="O32" s="21"/>
-      <c r="P32" s="21"/>
-      <c r="Q32" s="21"/>
-      <c r="R32" s="21"/>
-      <c r="S32" s="21"/>
-      <c r="T32" s="21"/>
-      <c r="U32" s="21"/>
-      <c r="V32" s="21"/>
-      <c r="W32" s="21"/>
-      <c r="X32" s="21"/>
-      <c r="Y32" s="21"/>
-      <c r="Z32" s="21"/>
-      <c r="AA32" s="21"/>
-      <c r="AB32" s="32"/>
+      <c r="B32" s="32"/>
+      <c r="C32" s="27"/>
+      <c r="D32" s="27"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="27"/>
+      <c r="G32" s="27"/>
+      <c r="H32" s="27"/>
+      <c r="I32" s="27"/>
+      <c r="J32" s="27"/>
+      <c r="K32" s="27"/>
+      <c r="L32" s="27"/>
+      <c r="M32" s="27"/>
+      <c r="N32" s="27"/>
+      <c r="O32" s="27"/>
+      <c r="P32" s="27"/>
+      <c r="Q32" s="27"/>
+      <c r="R32" s="27"/>
+      <c r="S32" s="27"/>
+      <c r="T32" s="27"/>
+      <c r="U32" s="27"/>
+      <c r="V32" s="27"/>
+      <c r="W32" s="27"/>
+      <c r="X32" s="27"/>
+      <c r="Y32" s="27"/>
+      <c r="Z32" s="27"/>
+      <c r="AA32" s="27"/>
+      <c r="AB32" s="35"/>
     </row>
     <row r="33" spans="2:28" ht="33.6" x14ac:dyDescent="0.75">
-      <c r="B33" s="29"/>
-      <c r="C33" s="21"/>
-      <c r="D33" s="21"/>
-      <c r="E33" s="21"/>
-      <c r="F33" s="21"/>
-      <c r="G33" s="21"/>
-      <c r="H33" s="21"/>
-      <c r="I33" s="21"/>
-      <c r="J33" s="21"/>
-      <c r="K33" s="21"/>
-      <c r="L33" s="21"/>
-      <c r="M33" s="21"/>
-      <c r="N33" s="21"/>
-      <c r="O33" s="34" t="s">
+      <c r="B33" s="32"/>
+      <c r="C33" s="27"/>
+      <c r="D33" s="27"/>
+      <c r="E33" s="27"/>
+      <c r="F33" s="27"/>
+      <c r="G33" s="27"/>
+      <c r="H33" s="27"/>
+      <c r="I33" s="27"/>
+      <c r="J33" s="27"/>
+      <c r="K33" s="27"/>
+      <c r="L33" s="27"/>
+      <c r="M33" s="27"/>
+      <c r="N33" s="27"/>
+      <c r="O33" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="P33" s="21"/>
-      <c r="Q33" s="21"/>
-      <c r="R33" s="21"/>
-      <c r="S33" s="21"/>
-      <c r="T33" s="21"/>
-      <c r="U33" s="21"/>
-      <c r="V33" s="21"/>
-      <c r="W33" s="21"/>
-      <c r="X33" s="21"/>
-      <c r="Y33" s="21"/>
-      <c r="Z33" s="21"/>
-      <c r="AA33" s="21"/>
-      <c r="AB33" s="32"/>
+      <c r="P33" s="27"/>
+      <c r="Q33" s="27"/>
+      <c r="R33" s="27"/>
+      <c r="S33" s="27"/>
+      <c r="T33" s="27"/>
+      <c r="U33" s="27"/>
+      <c r="V33" s="27"/>
+      <c r="W33" s="27"/>
+      <c r="X33" s="27"/>
+      <c r="Y33" s="27"/>
+      <c r="Z33" s="27"/>
+      <c r="AA33" s="27"/>
+      <c r="AB33" s="35"/>
     </row>
     <row r="34" spans="2:28" x14ac:dyDescent="0.4">
-      <c r="B34" s="29"/>
-      <c r="C34" s="21"/>
-      <c r="D34" s="21"/>
-      <c r="E34" s="21"/>
-      <c r="F34" s="21"/>
-      <c r="G34" s="21"/>
-      <c r="H34" s="21"/>
-      <c r="I34" s="21"/>
-      <c r="J34" s="21"/>
-      <c r="K34" s="21"/>
-      <c r="L34" s="21"/>
-      <c r="M34" s="21"/>
-      <c r="N34" s="21"/>
-      <c r="O34" s="21"/>
-      <c r="P34" s="21"/>
-      <c r="Q34" s="21"/>
-      <c r="R34" s="21"/>
-      <c r="S34" s="21"/>
-      <c r="T34" s="21"/>
-      <c r="U34" s="21"/>
-      <c r="V34" s="21"/>
-      <c r="W34" s="21"/>
-      <c r="X34" s="21"/>
-      <c r="Y34" s="21"/>
-      <c r="Z34" s="21"/>
-      <c r="AA34" s="21"/>
-      <c r="AB34" s="32"/>
+      <c r="B34" s="32"/>
+      <c r="C34" s="27"/>
+      <c r="D34" s="27"/>
+      <c r="E34" s="27"/>
+      <c r="F34" s="27"/>
+      <c r="G34" s="27"/>
+      <c r="H34" s="27"/>
+      <c r="I34" s="27"/>
+      <c r="J34" s="27"/>
+      <c r="K34" s="27"/>
+      <c r="L34" s="27"/>
+      <c r="M34" s="27"/>
+      <c r="N34" s="27"/>
+      <c r="O34" s="27"/>
+      <c r="P34" s="27"/>
+      <c r="Q34" s="27"/>
+      <c r="R34" s="27"/>
+      <c r="S34" s="27"/>
+      <c r="T34" s="27"/>
+      <c r="U34" s="27"/>
+      <c r="V34" s="27"/>
+      <c r="W34" s="27"/>
+      <c r="X34" s="27"/>
+      <c r="Y34" s="27"/>
+      <c r="Z34" s="27"/>
+      <c r="AA34" s="27"/>
+      <c r="AB34" s="35"/>
     </row>
     <row r="35" spans="2:28" x14ac:dyDescent="0.4">
-      <c r="B35" s="29"/>
-      <c r="C35" s="21"/>
-      <c r="D35" s="21"/>
-      <c r="E35" s="21"/>
-      <c r="F35" s="21"/>
-      <c r="G35" s="21"/>
-      <c r="H35" s="21"/>
-      <c r="I35" s="21"/>
-      <c r="J35" s="21"/>
-      <c r="K35" s="21"/>
-      <c r="L35" s="21"/>
-      <c r="M35" s="21"/>
-      <c r="N35" s="21"/>
-      <c r="O35" s="21"/>
-      <c r="P35" s="21"/>
-      <c r="Q35" s="21"/>
-      <c r="R35" s="21"/>
-      <c r="S35" s="21"/>
-      <c r="T35" s="21"/>
-      <c r="U35" s="21"/>
-      <c r="V35" s="21"/>
-      <c r="W35" s="21"/>
-      <c r="X35" s="21"/>
-      <c r="Y35" s="21"/>
-      <c r="Z35" s="21"/>
-      <c r="AA35" s="21"/>
-      <c r="AB35" s="32"/>
+      <c r="B35" s="32"/>
+      <c r="C35" s="27"/>
+      <c r="D35" s="27"/>
+      <c r="E35" s="27"/>
+      <c r="F35" s="27"/>
+      <c r="G35" s="27"/>
+      <c r="H35" s="27"/>
+      <c r="I35" s="27"/>
+      <c r="J35" s="27"/>
+      <c r="K35" s="27"/>
+      <c r="L35" s="27"/>
+      <c r="M35" s="27"/>
+      <c r="N35" s="27"/>
+      <c r="O35" s="27"/>
+      <c r="P35" s="27"/>
+      <c r="Q35" s="27"/>
+      <c r="R35" s="27"/>
+      <c r="S35" s="27"/>
+      <c r="T35" s="27"/>
+      <c r="U35" s="27"/>
+      <c r="V35" s="27"/>
+      <c r="W35" s="27"/>
+      <c r="X35" s="27"/>
+      <c r="Y35" s="27"/>
+      <c r="Z35" s="27"/>
+      <c r="AA35" s="27"/>
+      <c r="AB35" s="35"/>
     </row>
     <row r="36" spans="2:28" x14ac:dyDescent="0.4">
-      <c r="B36" s="29"/>
-      <c r="C36" s="21"/>
-      <c r="D36" s="21"/>
-      <c r="E36" s="21"/>
-      <c r="F36" s="21"/>
-      <c r="G36" s="21"/>
-      <c r="H36" s="21"/>
-      <c r="I36" s="21"/>
-      <c r="J36" s="21"/>
-      <c r="K36" s="21"/>
-      <c r="L36" s="21"/>
-      <c r="M36" s="21"/>
-      <c r="N36" s="21"/>
-      <c r="O36" s="21"/>
-      <c r="P36" s="21"/>
-      <c r="Q36" s="21"/>
-      <c r="R36" s="21"/>
-      <c r="S36" s="21"/>
-      <c r="T36" s="21"/>
-      <c r="U36" s="21"/>
-      <c r="V36" s="21"/>
-      <c r="W36" s="21"/>
-      <c r="X36" s="21"/>
-      <c r="Y36" s="21"/>
-      <c r="Z36" s="21"/>
-      <c r="AA36" s="21"/>
-      <c r="AB36" s="32"/>
+      <c r="B36" s="32"/>
+      <c r="C36" s="27"/>
+      <c r="D36" s="27"/>
+      <c r="E36" s="27"/>
+      <c r="F36" s="27"/>
+      <c r="G36" s="27"/>
+      <c r="H36" s="27"/>
+      <c r="I36" s="27"/>
+      <c r="J36" s="27"/>
+      <c r="K36" s="27"/>
+      <c r="L36" s="27"/>
+      <c r="M36" s="27"/>
+      <c r="N36" s="27"/>
+      <c r="O36" s="27"/>
+      <c r="P36" s="27"/>
+      <c r="Q36" s="27"/>
+      <c r="R36" s="27"/>
+      <c r="S36" s="27"/>
+      <c r="T36" s="27"/>
+      <c r="U36" s="27"/>
+      <c r="V36" s="27"/>
+      <c r="W36" s="27"/>
+      <c r="X36" s="27"/>
+      <c r="Y36" s="27"/>
+      <c r="Z36" s="27"/>
+      <c r="AA36" s="27"/>
+      <c r="AB36" s="35"/>
     </row>
     <row r="37" spans="2:28" x14ac:dyDescent="0.4">
-      <c r="B37" s="29"/>
-      <c r="C37" s="21"/>
-      <c r="D37" s="21"/>
-      <c r="E37" s="21"/>
-      <c r="F37" s="21"/>
-      <c r="G37" s="21"/>
-      <c r="H37" s="21"/>
-      <c r="I37" s="21"/>
-      <c r="J37" s="21"/>
-      <c r="K37" s="21"/>
-      <c r="L37" s="21"/>
-      <c r="M37" s="21"/>
-      <c r="N37" s="21"/>
-      <c r="O37" s="21"/>
-      <c r="P37" s="21"/>
-      <c r="Q37" s="21"/>
-      <c r="R37" s="21"/>
-      <c r="S37" s="21"/>
-      <c r="T37" s="21"/>
-      <c r="U37" s="21"/>
-      <c r="V37" s="21"/>
-      <c r="W37" s="21"/>
-      <c r="X37" s="21"/>
-      <c r="Y37" s="21"/>
-      <c r="Z37" s="21"/>
-      <c r="AA37" s="21"/>
-      <c r="AB37" s="32"/>
+      <c r="B37" s="32"/>
+      <c r="C37" s="27"/>
+      <c r="D37" s="27"/>
+      <c r="E37" s="27"/>
+      <c r="F37" s="27"/>
+      <c r="G37" s="27"/>
+      <c r="H37" s="27"/>
+      <c r="I37" s="27"/>
+      <c r="J37" s="27"/>
+      <c r="K37" s="27"/>
+      <c r="L37" s="27"/>
+      <c r="M37" s="27"/>
+      <c r="N37" s="27"/>
+      <c r="O37" s="27"/>
+      <c r="P37" s="27"/>
+      <c r="Q37" s="27"/>
+      <c r="R37" s="27"/>
+      <c r="S37" s="27"/>
+      <c r="T37" s="27"/>
+      <c r="U37" s="27"/>
+      <c r="V37" s="27"/>
+      <c r="W37" s="27"/>
+      <c r="X37" s="27"/>
+      <c r="Y37" s="27"/>
+      <c r="Z37" s="27"/>
+      <c r="AA37" s="27"/>
+      <c r="AB37" s="35"/>
     </row>
     <row r="38" spans="2:28" x14ac:dyDescent="0.4">
-      <c r="B38" s="29"/>
-      <c r="C38" s="21"/>
-      <c r="D38" s="21"/>
-      <c r="E38" s="21"/>
-      <c r="F38" s="21"/>
-      <c r="G38" s="21"/>
-      <c r="H38" s="21"/>
-      <c r="I38" s="21"/>
-      <c r="J38" s="21"/>
-      <c r="K38" s="21"/>
-      <c r="L38" s="21"/>
-      <c r="M38" s="21"/>
-      <c r="N38" s="21"/>
-      <c r="O38" s="21"/>
-      <c r="P38" s="21"/>
-      <c r="Q38" s="21"/>
-      <c r="R38" s="21"/>
-      <c r="S38" s="21"/>
-      <c r="T38" s="21"/>
-      <c r="U38" s="21"/>
-      <c r="V38" s="21"/>
-      <c r="W38" s="21"/>
-      <c r="X38" s="21"/>
-      <c r="Y38" s="21"/>
-      <c r="Z38" s="21"/>
-      <c r="AA38" s="21"/>
-      <c r="AB38" s="32"/>
+      <c r="B38" s="32"/>
+      <c r="C38" s="27"/>
+      <c r="D38" s="27"/>
+      <c r="E38" s="27"/>
+      <c r="F38" s="27"/>
+      <c r="G38" s="27"/>
+      <c r="H38" s="27"/>
+      <c r="I38" s="27"/>
+      <c r="J38" s="27"/>
+      <c r="K38" s="27"/>
+      <c r="L38" s="27"/>
+      <c r="M38" s="27"/>
+      <c r="N38" s="27"/>
+      <c r="O38" s="27"/>
+      <c r="P38" s="27"/>
+      <c r="Q38" s="27"/>
+      <c r="R38" s="27"/>
+      <c r="S38" s="27"/>
+      <c r="T38" s="27"/>
+      <c r="U38" s="27"/>
+      <c r="V38" s="27"/>
+      <c r="W38" s="27"/>
+      <c r="X38" s="27"/>
+      <c r="Y38" s="27"/>
+      <c r="Z38" s="27"/>
+      <c r="AA38" s="27"/>
+      <c r="AB38" s="35"/>
     </row>
     <row r="39" spans="2:28" x14ac:dyDescent="0.4">
-      <c r="B39" s="29"/>
-      <c r="C39" s="21"/>
-      <c r="D39" s="21"/>
-      <c r="E39" s="21"/>
-      <c r="F39" s="21"/>
-      <c r="G39" s="21"/>
-      <c r="H39" s="21"/>
-      <c r="I39" s="21"/>
-      <c r="J39" s="21"/>
-      <c r="K39" s="21"/>
-      <c r="L39" s="21"/>
-      <c r="M39" s="21"/>
-      <c r="N39" s="21"/>
-      <c r="O39" s="21"/>
-      <c r="P39" s="21"/>
-      <c r="Q39" s="21"/>
-      <c r="R39" s="21"/>
-      <c r="S39" s="21"/>
-      <c r="T39" s="21"/>
-      <c r="U39" s="21"/>
-      <c r="V39" s="21"/>
-      <c r="W39" s="21"/>
-      <c r="X39" s="21"/>
-      <c r="Y39" s="21"/>
-      <c r="Z39" s="21"/>
-      <c r="AA39" s="21"/>
-      <c r="AB39" s="32"/>
+      <c r="B39" s="32"/>
+      <c r="C39" s="27"/>
+      <c r="D39" s="27"/>
+      <c r="E39" s="27"/>
+      <c r="F39" s="27"/>
+      <c r="G39" s="27"/>
+      <c r="H39" s="27"/>
+      <c r="I39" s="27"/>
+      <c r="J39" s="27"/>
+      <c r="K39" s="27"/>
+      <c r="L39" s="27"/>
+      <c r="M39" s="27"/>
+      <c r="N39" s="27"/>
+      <c r="O39" s="27"/>
+      <c r="P39" s="27"/>
+      <c r="Q39" s="27"/>
+      <c r="R39" s="27"/>
+      <c r="S39" s="27"/>
+      <c r="T39" s="27"/>
+      <c r="U39" s="27"/>
+      <c r="V39" s="27"/>
+      <c r="W39" s="27"/>
+      <c r="X39" s="27"/>
+      <c r="Y39" s="27"/>
+      <c r="Z39" s="27"/>
+      <c r="AA39" s="27"/>
+      <c r="AB39" s="35"/>
     </row>
     <row r="40" spans="2:28" x14ac:dyDescent="0.4">
-      <c r="B40" s="29"/>
-      <c r="C40" s="21"/>
-      <c r="D40" s="21"/>
-      <c r="E40" s="21"/>
-      <c r="F40" s="21"/>
-      <c r="G40" s="21"/>
-      <c r="H40" s="21"/>
-      <c r="I40" s="21"/>
-      <c r="J40" s="21"/>
-      <c r="K40" s="21"/>
-      <c r="L40" s="21"/>
-      <c r="M40" s="21"/>
-      <c r="N40" s="21"/>
-      <c r="O40" s="21"/>
-      <c r="P40" s="21"/>
-      <c r="Q40" s="21"/>
-      <c r="R40" s="21"/>
-      <c r="S40" s="21"/>
-      <c r="T40" s="21"/>
-      <c r="U40" s="21"/>
-      <c r="V40" s="21"/>
-      <c r="W40" s="21"/>
-      <c r="X40" s="21"/>
-      <c r="Y40" s="21"/>
-      <c r="Z40" s="21"/>
-      <c r="AA40" s="21"/>
-      <c r="AB40" s="32"/>
+      <c r="B40" s="32"/>
+      <c r="C40" s="27"/>
+      <c r="D40" s="27"/>
+      <c r="E40" s="27"/>
+      <c r="F40" s="27"/>
+      <c r="G40" s="27"/>
+      <c r="H40" s="27"/>
+      <c r="I40" s="27"/>
+      <c r="J40" s="27"/>
+      <c r="K40" s="27"/>
+      <c r="L40" s="27"/>
+      <c r="M40" s="27"/>
+      <c r="N40" s="27"/>
+      <c r="O40" s="27"/>
+      <c r="P40" s="27"/>
+      <c r="Q40" s="27"/>
+      <c r="R40" s="27"/>
+      <c r="S40" s="27"/>
+      <c r="T40" s="27"/>
+      <c r="U40" s="27"/>
+      <c r="V40" s="27"/>
+      <c r="W40" s="27"/>
+      <c r="X40" s="27"/>
+      <c r="Y40" s="27"/>
+      <c r="Z40" s="27"/>
+      <c r="AA40" s="27"/>
+      <c r="AB40" s="35"/>
     </row>
     <row r="41" spans="2:28" x14ac:dyDescent="0.4">
-      <c r="B41" s="29"/>
-      <c r="C41" s="21"/>
-      <c r="D41" s="21"/>
-      <c r="E41" s="21"/>
-      <c r="F41" s="21"/>
-      <c r="G41" s="21"/>
-      <c r="H41" s="21"/>
-      <c r="I41" s="21"/>
-      <c r="J41" s="21"/>
-      <c r="K41" s="21"/>
-      <c r="L41" s="21"/>
-      <c r="M41" s="21"/>
-      <c r="N41" s="21"/>
-      <c r="O41" s="21"/>
-      <c r="P41" s="21"/>
-      <c r="Q41" s="21"/>
-      <c r="R41" s="21"/>
-      <c r="S41" s="21"/>
-      <c r="T41" s="21"/>
-      <c r="U41" s="21"/>
-      <c r="V41" s="21"/>
-      <c r="W41" s="21"/>
-      <c r="X41" s="21"/>
-      <c r="Y41" s="21"/>
-      <c r="Z41" s="21"/>
-      <c r="AA41" s="21"/>
-      <c r="AB41" s="32"/>
+      <c r="B41" s="32"/>
+      <c r="C41" s="27"/>
+      <c r="D41" s="27"/>
+      <c r="E41" s="27"/>
+      <c r="F41" s="27"/>
+      <c r="G41" s="27"/>
+      <c r="H41" s="27"/>
+      <c r="I41" s="27"/>
+      <c r="J41" s="27"/>
+      <c r="K41" s="27"/>
+      <c r="L41" s="27"/>
+      <c r="M41" s="27"/>
+      <c r="N41" s="27"/>
+      <c r="O41" s="27"/>
+      <c r="P41" s="27"/>
+      <c r="Q41" s="27"/>
+      <c r="R41" s="27"/>
+      <c r="S41" s="27"/>
+      <c r="T41" s="27"/>
+      <c r="U41" s="27"/>
+      <c r="V41" s="27"/>
+      <c r="W41" s="27"/>
+      <c r="X41" s="27"/>
+      <c r="Y41" s="27"/>
+      <c r="Z41" s="27"/>
+      <c r="AA41" s="27"/>
+      <c r="AB41" s="35"/>
     </row>
     <row r="42" spans="2:28" x14ac:dyDescent="0.4">
-      <c r="B42" s="29"/>
-      <c r="C42" s="21"/>
-      <c r="D42" s="21"/>
-      <c r="E42" s="21"/>
-      <c r="F42" s="21"/>
-      <c r="G42" s="21"/>
-      <c r="H42" s="21"/>
-      <c r="I42" s="21"/>
-      <c r="J42" s="21"/>
-      <c r="K42" s="21"/>
-      <c r="L42" s="21"/>
-      <c r="M42" s="21"/>
-      <c r="N42" s="21"/>
-      <c r="O42" s="21"/>
-      <c r="P42" s="21"/>
-      <c r="Q42" s="21"/>
-      <c r="R42" s="21"/>
-      <c r="S42" s="21"/>
-      <c r="T42" s="21"/>
-      <c r="U42" s="21"/>
-      <c r="V42" s="21"/>
-      <c r="W42" s="21"/>
-      <c r="X42" s="21"/>
-      <c r="Y42" s="21"/>
-      <c r="Z42" s="21"/>
-      <c r="AA42" s="21"/>
-      <c r="AB42" s="32"/>
+      <c r="B42" s="32"/>
+      <c r="C42" s="27"/>
+      <c r="D42" s="27"/>
+      <c r="E42" s="27"/>
+      <c r="F42" s="27"/>
+      <c r="G42" s="27"/>
+      <c r="H42" s="27"/>
+      <c r="I42" s="27"/>
+      <c r="J42" s="27"/>
+      <c r="K42" s="27"/>
+      <c r="L42" s="27"/>
+      <c r="M42" s="27"/>
+      <c r="N42" s="27"/>
+      <c r="O42" s="27"/>
+      <c r="P42" s="27"/>
+      <c r="Q42" s="27"/>
+      <c r="R42" s="27"/>
+      <c r="S42" s="27"/>
+      <c r="T42" s="27"/>
+      <c r="U42" s="27"/>
+      <c r="V42" s="27"/>
+      <c r="W42" s="27"/>
+      <c r="X42" s="27"/>
+      <c r="Y42" s="27"/>
+      <c r="Z42" s="27"/>
+      <c r="AA42" s="27"/>
+      <c r="AB42" s="35"/>
     </row>
     <row r="43" spans="2:28" x14ac:dyDescent="0.4">
-      <c r="B43" s="29"/>
-      <c r="C43" s="21"/>
-      <c r="D43" s="21"/>
-      <c r="E43" s="21"/>
-      <c r="F43" s="21"/>
-      <c r="G43" s="21"/>
-      <c r="H43" s="21"/>
-      <c r="I43" s="21"/>
-      <c r="J43" s="21"/>
-      <c r="K43" s="21"/>
-      <c r="L43" s="21"/>
-      <c r="M43" s="21"/>
-      <c r="N43" s="21"/>
-      <c r="O43" s="21"/>
-      <c r="P43" s="21"/>
-      <c r="Q43" s="21"/>
-      <c r="R43" s="21"/>
-      <c r="S43" s="21"/>
-      <c r="T43" s="21"/>
-      <c r="U43" s="21"/>
-      <c r="V43" s="21"/>
-      <c r="W43" s="21"/>
-      <c r="X43" s="21"/>
-      <c r="Y43" s="21"/>
-      <c r="Z43" s="21"/>
-      <c r="AA43" s="21"/>
-      <c r="AB43" s="32"/>
+      <c r="B43" s="32"/>
+      <c r="C43" s="27"/>
+      <c r="D43" s="27"/>
+      <c r="E43" s="27"/>
+      <c r="F43" s="27"/>
+      <c r="G43" s="27"/>
+      <c r="H43" s="27"/>
+      <c r="I43" s="27"/>
+      <c r="J43" s="27"/>
+      <c r="K43" s="27"/>
+      <c r="L43" s="27"/>
+      <c r="M43" s="27"/>
+      <c r="N43" s="27"/>
+      <c r="O43" s="27"/>
+      <c r="P43" s="27"/>
+      <c r="Q43" s="27"/>
+      <c r="R43" s="27"/>
+      <c r="S43" s="27"/>
+      <c r="T43" s="27"/>
+      <c r="U43" s="27"/>
+      <c r="V43" s="27"/>
+      <c r="W43" s="27"/>
+      <c r="X43" s="27"/>
+      <c r="Y43" s="27"/>
+      <c r="Z43" s="27"/>
+      <c r="AA43" s="27"/>
+      <c r="AB43" s="35"/>
     </row>
     <row r="44" spans="2:28" x14ac:dyDescent="0.4">
-      <c r="B44" s="29"/>
-      <c r="C44" s="21"/>
-      <c r="D44" s="21"/>
-      <c r="E44" s="21"/>
-      <c r="F44" s="21"/>
-      <c r="G44" s="21"/>
-      <c r="H44" s="21"/>
-      <c r="I44" s="21"/>
-      <c r="J44" s="21"/>
-      <c r="K44" s="21"/>
-      <c r="L44" s="21"/>
-      <c r="M44" s="21"/>
-      <c r="N44" s="21"/>
-      <c r="O44" s="21"/>
-      <c r="P44" s="21"/>
-      <c r="Q44" s="21"/>
-      <c r="R44" s="21"/>
-      <c r="S44" s="21"/>
-      <c r="T44" s="21"/>
-      <c r="U44" s="21"/>
-      <c r="V44" s="21"/>
-      <c r="W44" s="21"/>
-      <c r="X44" s="21"/>
-      <c r="Y44" s="21"/>
-      <c r="Z44" s="21"/>
-      <c r="AA44" s="21"/>
-      <c r="AB44" s="32"/>
+      <c r="B44" s="32"/>
+      <c r="C44" s="27"/>
+      <c r="D44" s="27"/>
+      <c r="E44" s="27"/>
+      <c r="F44" s="27"/>
+      <c r="G44" s="27"/>
+      <c r="H44" s="27"/>
+      <c r="I44" s="27"/>
+      <c r="J44" s="27"/>
+      <c r="K44" s="27"/>
+      <c r="L44" s="27"/>
+      <c r="M44" s="27"/>
+      <c r="N44" s="27"/>
+      <c r="O44" s="27"/>
+      <c r="P44" s="27"/>
+      <c r="Q44" s="27"/>
+      <c r="R44" s="27"/>
+      <c r="S44" s="27"/>
+      <c r="T44" s="27"/>
+      <c r="U44" s="27"/>
+      <c r="V44" s="27"/>
+      <c r="W44" s="27"/>
+      <c r="X44" s="27"/>
+      <c r="Y44" s="27"/>
+      <c r="Z44" s="27"/>
+      <c r="AA44" s="27"/>
+      <c r="AB44" s="35"/>
     </row>
     <row r="45" spans="2:28" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B45" s="35"/>
-      <c r="C45" s="36"/>
-      <c r="D45" s="36"/>
-      <c r="E45" s="36"/>
-      <c r="F45" s="36"/>
-      <c r="G45" s="36"/>
-      <c r="H45" s="36"/>
-      <c r="I45" s="36"/>
-      <c r="J45" s="36"/>
-      <c r="K45" s="36"/>
-      <c r="L45" s="36"/>
-      <c r="M45" s="36"/>
-      <c r="N45" s="36"/>
-      <c r="O45" s="36"/>
-      <c r="P45" s="36"/>
-      <c r="Q45" s="36"/>
-      <c r="R45" s="36"/>
-      <c r="S45" s="36"/>
-      <c r="T45" s="36"/>
-      <c r="U45" s="36"/>
-      <c r="V45" s="36"/>
-      <c r="W45" s="36"/>
-      <c r="X45" s="36"/>
-      <c r="Y45" s="36"/>
-      <c r="Z45" s="36"/>
-      <c r="AA45" s="36"/>
-      <c r="AB45" s="37"/>
+      <c r="B45" s="36"/>
+      <c r="C45" s="37"/>
+      <c r="D45" s="37"/>
+      <c r="E45" s="37"/>
+      <c r="F45" s="37"/>
+      <c r="G45" s="37"/>
+      <c r="H45" s="37"/>
+      <c r="I45" s="37"/>
+      <c r="J45" s="37"/>
+      <c r="K45" s="37"/>
+      <c r="L45" s="37"/>
+      <c r="M45" s="37"/>
+      <c r="N45" s="37"/>
+      <c r="O45" s="37"/>
+      <c r="P45" s="37"/>
+      <c r="Q45" s="37"/>
+      <c r="R45" s="37"/>
+      <c r="S45" s="37"/>
+      <c r="T45" s="37"/>
+      <c r="U45" s="37"/>
+      <c r="V45" s="37"/>
+      <c r="W45" s="37"/>
+      <c r="X45" s="37"/>
+      <c r="Y45" s="37"/>
+      <c r="Z45" s="37"/>
+      <c r="AA45" s="37"/>
+      <c r="AB45" s="38"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
